--- a/capiq_data/in_process_data/IQ34378.xlsx
+++ b/capiq_data/in_process_data/IQ34378.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF3C376-AE4D-4B99-AE55-13677C18B700}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A64F98-8AA8-407A-B87F-4D7747B5D9C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"0a3f1122-d2e3-474a-826a-9ba3170d408e"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"d20ff6d3-da5c-4b8e-9510-e401031de287"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>218.75800000000001</v>
+        <v>84.433000000000007</v>
       </c>
       <c r="D2">
-        <v>1119.7180000000001</v>
+        <v>506.86799999999999</v>
       </c>
       <c r="E2">
-        <v>426.73599999999999</v>
+        <v>302.19799999999998</v>
       </c>
       <c r="F2">
-        <v>887.14499999999998</v>
+        <v>397.339</v>
       </c>
       <c r="G2">
-        <v>2281.203</v>
+        <v>707.71</v>
       </c>
       <c r="H2">
-        <v>24857.429</v>
+        <v>13937.945</v>
       </c>
       <c r="I2">
-        <v>954.73800000000006</v>
+        <v>451.20699999999999</v>
       </c>
       <c r="J2">
-        <v>17473.759999999998</v>
+        <v>8728.5820000000003</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1576.2929999999999</v>
+        <v>514.10699999999997</v>
       </c>
       <c r="O2">
-        <v>19138.207999999999</v>
+        <v>9470.241</v>
       </c>
       <c r="P2">
-        <v>17493.259999999998</v>
+        <v>8728.5820000000003</v>
       </c>
       <c r="Q2">
-        <v>-214.85599999999999</v>
+        <v>108.691</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>3500</v>
+        <v>2780</v>
       </c>
       <c r="T2">
-        <v>5719.2209999999995</v>
+        <v>4467.7039999999997</v>
       </c>
       <c r="U2">
-        <v>796.71799999999996</v>
+        <v>223.11099999999999</v>
       </c>
       <c r="V2">
-        <v>469.738</v>
+        <v>276.87</v>
       </c>
       <c r="W2">
-        <v>-235.14500000000001</v>
+        <v>-97.054000000000002</v>
       </c>
       <c r="X2">
-        <v>-308.04700000000003</v>
+        <v>-116.605</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>81.331000000000003</v>
+        <v>106.65</v>
       </c>
       <c r="AA2">
-        <v>218.75800000000001</v>
+        <v>84.433000000000007</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>180.24600000000001</v>
+        <v>40.124000000000002</v>
       </c>
       <c r="D3">
-        <v>1019.874</v>
+        <v>502.40699999999998</v>
       </c>
       <c r="E3">
-        <v>372.65</v>
+        <v>257.65800000000002</v>
       </c>
       <c r="F3">
-        <v>794.82899999999995</v>
+        <v>401.00200000000001</v>
       </c>
       <c r="G3">
-        <v>1659.9</v>
+        <v>607.25900000000001</v>
       </c>
       <c r="H3">
-        <v>24569.273000000001</v>
+        <v>13764.394</v>
       </c>
       <c r="I3">
-        <v>1014.413</v>
+        <v>418.41199999999998</v>
       </c>
       <c r="J3">
-        <v>16571.093000000001</v>
+        <v>8747.2180000000008</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-295.2</v>
+        <v>-562.24400000000003</v>
       </c>
       <c r="N3">
-        <v>2169.2550000000001</v>
+        <v>484.86099999999999</v>
       </c>
       <c r="O3">
-        <v>18918.987000000001</v>
+        <v>9373.3250000000007</v>
       </c>
       <c r="P3">
-        <v>17187.62</v>
+        <v>8747.2180000000008</v>
       </c>
       <c r="Q3">
-        <v>-160.66800000000001</v>
+        <v>-88.093999999999994</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>5650.2860000000001</v>
+        <v>4391.0690000000004</v>
       </c>
       <c r="U3">
-        <v>636.04999999999995</v>
+        <v>135.017</v>
       </c>
       <c r="V3">
-        <v>452.30500000000001</v>
+        <v>110.09</v>
       </c>
       <c r="W3">
-        <v>-235.28299999999999</v>
+        <v>-95.275999999999996</v>
       </c>
       <c r="X3">
-        <v>-600.94399999999996</v>
+        <v>-122.349</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>44.244</v>
+        <v>-20.547999999999998</v>
       </c>
       <c r="AA3">
-        <v>180.24600000000001</v>
+        <v>40.124000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>205.95500000000001</v>
+        <v>45.923000000000002</v>
       </c>
       <c r="D4">
-        <v>1040.8610000000001</v>
+        <v>502.173</v>
       </c>
       <c r="E4">
-        <v>381.89499999999998</v>
+        <v>281.72000000000003</v>
       </c>
       <c r="F4">
-        <v>813.48099999999999</v>
+        <v>397.93099999999998</v>
       </c>
       <c r="G4">
-        <v>1825.2080000000001</v>
+        <v>584.21199999999999</v>
       </c>
       <c r="H4">
-        <v>24534.022000000001</v>
+        <v>13697.633</v>
       </c>
       <c r="I4">
-        <v>1049.3130000000001</v>
+        <v>476.51600000000002</v>
       </c>
       <c r="J4">
-        <v>16784.421999999999</v>
+        <v>8730.0120000000006</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1901.71</v>
+        <v>543.255</v>
       </c>
       <c r="O4">
-        <v>18874.759999999998</v>
+        <v>9377.7469999999994</v>
       </c>
       <c r="P4">
-        <v>17029.393</v>
+        <v>8730.0120000000006</v>
       </c>
       <c r="Q4">
-        <v>153.66300000000001</v>
+        <v>45.341999999999999</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>5659.2619999999997</v>
+        <v>4319.8860000000004</v>
       </c>
       <c r="U4">
-        <v>789.71299999999997</v>
+        <v>180.35900000000001</v>
       </c>
       <c r="V4">
-        <v>445.74299999999999</v>
+        <v>190.726</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>-100.783</v>
       </c>
       <c r="X4">
-        <v>-451.02</v>
+        <v>-158.86199999999999</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>142.09299999999999</v>
+        <v>82.826999999999998</v>
       </c>
       <c r="AA4">
-        <v>205.95500000000001</v>
+        <v>45.923000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>274.834</v>
+        <v>52.75</v>
       </c>
       <c r="D5">
-        <v>1074.3599999999999</v>
+        <v>507.43400000000003</v>
       </c>
       <c r="E5">
-        <v>413.92200000000003</v>
+        <v>271.92399999999998</v>
       </c>
       <c r="F5">
-        <v>838.68399999999997</v>
+        <v>360.04300000000001</v>
       </c>
       <c r="G5">
-        <v>1640.9390000000001</v>
+        <v>528.34199999999998</v>
       </c>
       <c r="H5">
-        <v>25575.207999999999</v>
+        <v>13701.245999999999</v>
       </c>
       <c r="I5">
-        <v>1151.19</v>
+        <v>487.685</v>
       </c>
       <c r="J5">
-        <v>17885.762999999999</v>
+        <v>8792.09</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1847.6579999999999</v>
+        <v>550.71199999999999</v>
       </c>
       <c r="O5">
-        <v>19891.84</v>
+        <v>9454.384</v>
       </c>
       <c r="P5">
-        <v>18004.460999999999</v>
+        <v>8792.09</v>
       </c>
       <c r="Q5">
-        <v>-213.89599999999999</v>
+        <v>-18.626000000000001</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>5683.3680000000004</v>
+        <v>4246.8620000000001</v>
       </c>
       <c r="U5">
-        <v>575.81700000000001</v>
+        <v>161.733</v>
       </c>
       <c r="V5">
-        <v>601.09299999999996</v>
+        <v>203.18100000000001</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>-106.627</v>
       </c>
       <c r="X5">
-        <v>454.44200000000001</v>
+        <v>-78.962999999999994</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>16.616</v>
+        <v>-77.367000000000004</v>
       </c>
       <c r="AA5">
-        <v>274.834</v>
+        <v>52.75</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>363.76400000000001</v>
+        <v>60.351999999999997</v>
       </c>
       <c r="D6">
-        <v>1171.338</v>
+        <v>601.30799999999999</v>
       </c>
       <c r="E6">
-        <v>486.73099999999999</v>
+        <v>316.84199999999998</v>
       </c>
       <c r="F6">
-        <v>933.11300000000006</v>
+        <v>442.28399999999999</v>
       </c>
       <c r="G6">
-        <v>2280.317</v>
+        <v>656.34</v>
       </c>
       <c r="H6">
-        <v>26216.924999999999</v>
+        <v>13810.954</v>
       </c>
       <c r="I6">
-        <v>957.31200000000001</v>
+        <v>544.43100000000004</v>
       </c>
       <c r="J6">
-        <v>18446.439999999999</v>
+        <v>8841.3780000000006</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1777.981</v>
+        <v>570.51499999999999</v>
       </c>
       <c r="O6">
-        <v>20404.691999999999</v>
+        <v>9625.1720000000005</v>
       </c>
       <c r="P6">
-        <v>18456.439999999999</v>
+        <v>8841.3780000000006</v>
       </c>
       <c r="Q6">
-        <v>222.833</v>
+        <v>98.027000000000001</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>3300</v>
+        <v>2580</v>
       </c>
       <c r="T6">
-        <v>5812.2330000000002</v>
+        <v>4185.7820000000002</v>
       </c>
       <c r="U6">
-        <v>798.65</v>
+        <v>259.76</v>
       </c>
       <c r="V6">
-        <v>506.74599999999998</v>
+        <v>355.065</v>
       </c>
       <c r="W6">
-        <v>-265.16734000000002</v>
+        <v>-126.282</v>
       </c>
       <c r="X6">
-        <v>-412.39100000000002</v>
+        <v>-110.929</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>117.684</v>
+        <v>84.236999999999995</v>
       </c>
       <c r="AA6">
-        <v>363.76400000000001</v>
+        <v>60.351999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>646.24400000000003</v>
+        <v>46.505000000000003</v>
       </c>
       <c r="D7">
-        <v>1118.9690000000001</v>
+        <v>488.94499999999999</v>
       </c>
       <c r="E7">
-        <v>417.08499999999998</v>
+        <v>263.86599999999999</v>
       </c>
       <c r="F7">
-        <v>886.34100000000001</v>
+        <v>343.73599999999999</v>
       </c>
       <c r="G7">
-        <v>1298.8340000000001</v>
+        <v>617.41099999999994</v>
       </c>
       <c r="H7">
-        <v>32417.465</v>
+        <v>13626.041999999999</v>
       </c>
       <c r="I7">
-        <v>1127.7940000000001</v>
+        <v>528.76800000000003</v>
       </c>
       <c r="J7">
-        <v>22176.83</v>
+        <v>8676.3369999999995</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-2242.4479999999999</v>
+        <v>-461.77100000000002</v>
       </c>
       <c r="N7">
-        <v>2470.2399999999998</v>
+        <v>703.49199999999996</v>
       </c>
       <c r="O7">
-        <v>24861.544000000002</v>
+        <v>9512.6119999999992</v>
       </c>
       <c r="P7">
-        <v>22808.962</v>
+        <v>8812.1299999999992</v>
       </c>
       <c r="Q7">
-        <v>81.899000000000001</v>
+        <v>-16.498999999999999</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>7555.9210000000003</v>
+        <v>4113.43</v>
       </c>
       <c r="U7">
-        <v>880.54899999999998</v>
+        <v>243.261</v>
       </c>
       <c r="V7">
-        <v>572.95399999999995</v>
+        <v>99.524000000000001</v>
       </c>
       <c r="W7">
-        <v>-280.03399999999999</v>
+        <v>-89.581999999999994</v>
       </c>
       <c r="X7">
-        <v>2684.252</v>
+        <v>-145.87100000000001</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>7.7320000000000002</v>
+        <v>57.023000000000003</v>
       </c>
       <c r="AA7">
-        <v>646.24400000000003</v>
+        <v>46.505000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>216.28</v>
+        <v>189.506</v>
       </c>
       <c r="D8">
-        <v>1188.066</v>
+        <v>504.55200000000002</v>
       </c>
       <c r="E8">
-        <v>423.91699999999997</v>
+        <v>252.68600000000001</v>
       </c>
       <c r="F8">
-        <v>935.7</v>
+        <v>461.49299999999999</v>
       </c>
       <c r="G8">
-        <v>1062.5160000000001</v>
+        <v>607.48800000000006</v>
       </c>
       <c r="H8">
-        <v>31986.582999999999</v>
+        <v>14512.235000000001</v>
       </c>
       <c r="I8">
-        <v>1168.636</v>
+        <v>492.03199999999998</v>
       </c>
       <c r="J8">
-        <v>22218.453000000001</v>
+        <v>9511.0869999999995</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2153.9769999999999</v>
+        <v>621.53300000000002</v>
       </c>
       <c r="O8">
-        <v>24592.505000000001</v>
+        <v>10283.187</v>
       </c>
       <c r="P8">
-        <v>22472.758000000002</v>
+        <v>9597.0640000000003</v>
       </c>
       <c r="Q8">
-        <v>-242.05</v>
+        <v>-20.007999999999999</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>7394.0780000000004</v>
+        <v>4229.0479999999998</v>
       </c>
       <c r="U8">
-        <v>638.49900000000002</v>
+        <v>223.25299999999999</v>
       </c>
       <c r="V8">
-        <v>626.23599999999999</v>
+        <v>164.166</v>
       </c>
       <c r="W8">
-        <v>-304.05</v>
+        <v>-114.099</v>
       </c>
       <c r="X8">
-        <v>-657.44399999999996</v>
+        <v>464.20400000000001</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>4.351</v>
+        <v>2.1680000000000001</v>
       </c>
       <c r="AA8">
-        <v>216.279</v>
+        <v>189.506</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>255.755</v>
+        <v>74.585999999999999</v>
       </c>
       <c r="D9">
-        <v>1228.617</v>
+        <v>541.072</v>
       </c>
       <c r="E9">
-        <v>456.39699999999999</v>
+        <v>272.887</v>
       </c>
       <c r="F9">
-        <v>965.16899999999998</v>
+        <v>435.96499999999997</v>
       </c>
       <c r="G9">
-        <v>912.70899999999995</v>
+        <v>602.61900000000003</v>
       </c>
       <c r="H9">
-        <v>31977.976999999999</v>
+        <v>14780.698</v>
       </c>
       <c r="I9">
-        <v>1204.4380000000001</v>
+        <v>568.09</v>
       </c>
       <c r="J9">
-        <v>22550.588</v>
+        <v>9540.7759999999998</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1955.854</v>
+        <v>589.00199999999995</v>
       </c>
       <c r="O9">
-        <v>24802.93</v>
+        <v>10283.096</v>
       </c>
       <c r="P9">
-        <v>22573.534</v>
+        <v>9549.1740000000009</v>
       </c>
       <c r="Q9">
-        <v>-185.78700000000001</v>
+        <v>2.5459999999999998</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>7175.0469999999996</v>
+        <v>4497.6019999999999</v>
       </c>
       <c r="U9">
-        <v>452.71199999999999</v>
+        <v>225.79900000000001</v>
       </c>
       <c r="V9">
-        <v>627.95500000000004</v>
+        <v>262.46499999999997</v>
       </c>
       <c r="W9">
-        <v>-319.34199999999998</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-455.86200000000002</v>
+        <v>-116.14400000000001</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-185.67400000000001</v>
+        <v>38.795000000000002</v>
       </c>
       <c r="AA9">
-        <v>255.755</v>
+        <v>74.585999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>316.21699999999998</v>
+        <v>111.991</v>
       </c>
       <c r="D10">
-        <v>1344.432</v>
+        <v>589.58299999999997</v>
       </c>
       <c r="E10">
-        <v>521.30100000000004</v>
+        <v>311.36099999999999</v>
       </c>
       <c r="F10">
-        <v>1074.875</v>
+        <v>492.435</v>
       </c>
       <c r="G10">
-        <v>2165.3960000000002</v>
+        <v>783.59500000000003</v>
       </c>
       <c r="H10">
-        <v>32586.606</v>
+        <v>14904.502</v>
       </c>
       <c r="I10">
-        <v>1174.972</v>
+        <v>624.505</v>
       </c>
       <c r="J10">
-        <v>23113.007000000001</v>
+        <v>9546.0810000000001</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2014.0160000000001</v>
+        <v>638.40300000000002</v>
       </c>
       <c r="O10">
-        <v>25515.510999999999</v>
+        <v>10412.992</v>
       </c>
       <c r="P10">
-        <v>23114.507000000001</v>
+        <v>9546.0810000000001</v>
       </c>
       <c r="Q10">
-        <v>731.80600000000004</v>
+        <v>171.33</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>3400</v>
+        <v>2410</v>
       </c>
       <c r="T10">
-        <v>7071.0950000000003</v>
+        <v>4491.51</v>
       </c>
       <c r="U10">
-        <v>1184.518</v>
+        <v>397.12900000000002</v>
       </c>
       <c r="V10">
-        <v>685.92700000000002</v>
+        <v>356.83499999999998</v>
       </c>
       <c r="W10">
-        <v>-341.12700000000001</v>
+        <v>-118.054</v>
       </c>
       <c r="X10">
-        <v>-117.479</v>
+        <v>-162.08000000000001</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>424.95400000000001</v>
+        <v>3.2149999999999999</v>
       </c>
       <c r="AA10">
-        <v>316.21699999999998</v>
+        <v>111.991</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>283.97199999999998</v>
+        <v>70.822000000000003</v>
       </c>
       <c r="D11">
-        <v>1060.8230000000001</v>
+        <v>533.80499999999995</v>
       </c>
       <c r="E11">
-        <v>454.11</v>
+        <v>270.029</v>
       </c>
       <c r="F11">
-        <v>859.15300000000002</v>
+        <v>378.16399999999999</v>
       </c>
       <c r="G11">
-        <v>1295.2760000000001</v>
+        <v>676.97</v>
       </c>
       <c r="H11">
-        <v>31886.123</v>
+        <v>14974.19</v>
       </c>
       <c r="I11">
-        <v>1231.298</v>
+        <v>551.25400000000002</v>
       </c>
       <c r="J11">
-        <v>22442.201000000001</v>
+        <v>8866.85</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-1115.992</v>
+        <v>-509.62599999999998</v>
       </c>
       <c r="N11">
-        <v>2188.1320000000001</v>
+        <v>1502.32</v>
       </c>
       <c r="O11">
-        <v>24875.433000000001</v>
+        <v>10538.342000000001</v>
       </c>
       <c r="P11">
-        <v>22573.814999999999</v>
+        <v>9803.8989999999994</v>
       </c>
       <c r="Q11">
-        <v>-354.55200000000002</v>
+        <v>9.8119999999999994</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>7010.69</v>
+        <v>4435.848</v>
       </c>
       <c r="U11">
-        <v>829.96600000000001</v>
+        <v>406.94099999999997</v>
       </c>
       <c r="V11">
-        <v>550.51300000000003</v>
+        <v>58.03</v>
       </c>
       <c r="W11">
-        <v>-357.37400000000002</v>
+        <v>-127.242</v>
       </c>
       <c r="X11">
-        <v>-892.83799999999997</v>
+        <v>101.664</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>184.43299999999999</v>
+        <v>4.2560000000000002</v>
       </c>
       <c r="AA11">
-        <v>283.97300000000001</v>
+        <v>70.822000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>65.974999999999994</v>
       </c>
       <c r="D12">
-        <v>1084.9929999999999</v>
+        <v>551.20899999999995</v>
       </c>
       <c r="E12">
-        <v>491.38799999999998</v>
+        <v>264.88200000000001</v>
       </c>
       <c r="F12">
-        <v>880.846</v>
+        <v>501.60399999999998</v>
       </c>
       <c r="G12">
-        <v>1591.5170000000001</v>
+        <v>616.29</v>
       </c>
       <c r="H12">
-        <v>32015.136999999999</v>
+        <v>14826.184999999999</v>
       </c>
       <c r="I12">
-        <v>1273.211</v>
+        <v>581.47400000000005</v>
       </c>
       <c r="J12">
-        <v>22572.895</v>
+        <v>9431.7939999999999</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2225.203</v>
+        <v>867.37800000000004</v>
       </c>
       <c r="O12">
-        <v>25028.871999999999</v>
+        <v>10471.245999999999</v>
       </c>
       <c r="P12">
-        <v>22688.621999999999</v>
+        <v>9701.6740000000009</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>-55.533000000000001</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>6986.2650000000003</v>
+        <v>4354.9390000000003</v>
       </c>
       <c r="U12">
-        <v>1095.829</v>
+        <v>351.40800000000002</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>262.36200000000002</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>-129.11000000000001</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>-271.24299999999999</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>15.798999999999999</v>
       </c>
       <c r="AA12">
-        <v>340.77</v>
+        <v>65.974999999999994</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>312.50900000000001</v>
+        <v>58.404000000000003</v>
       </c>
       <c r="D13">
-        <v>1146.877</v>
+        <v>559.55399999999997</v>
       </c>
       <c r="E13">
-        <v>529.89300000000003</v>
+        <v>275.99400000000003</v>
       </c>
       <c r="F13">
-        <v>929.73900000000003</v>
+        <v>454.07100000000003</v>
       </c>
       <c r="G13">
-        <v>1736.914</v>
+        <v>637.06100000000004</v>
       </c>
       <c r="H13">
-        <v>32111.409</v>
+        <v>15104.977000000001</v>
       </c>
       <c r="I13">
-        <v>1328.0889999999999</v>
+        <v>621.41600000000005</v>
       </c>
       <c r="J13">
-        <v>22710.815999999999</v>
+        <v>9740.3539999999994</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2193.5889999999999</v>
+        <v>899.11400000000003</v>
       </c>
       <c r="O13">
-        <v>25127.124</v>
+        <v>10827.246999999999</v>
       </c>
       <c r="P13">
-        <v>22734.254000000001</v>
+        <v>10000.254000000001</v>
       </c>
       <c r="Q13">
-        <v>3.492</v>
+        <v>9.6590000000000007</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>6984.2849999999999</v>
+        <v>4277.7299999999996</v>
       </c>
       <c r="U13">
-        <v>1099.3209999999999</v>
+        <v>361.06700000000001</v>
       </c>
       <c r="V13">
-        <v>695.94399999999996</v>
+        <v>197.58799999999999</v>
       </c>
       <c r="W13">
-        <v>-357.721</v>
+        <v>-129.18799999999999</v>
       </c>
       <c r="X13">
-        <v>-412.95</v>
+        <v>140.34299999999999</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-23.707000000000001</v>
+        <v>33.176000000000002</v>
       </c>
       <c r="AA13">
-        <v>312.50900000000001</v>
+        <v>58.404000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>382.38900000000001</v>
+        <v>173.51400000000001</v>
       </c>
       <c r="D14">
-        <v>1251.1559999999999</v>
+        <v>655.64599999999996</v>
       </c>
       <c r="E14">
-        <v>520.36099999999999</v>
+        <v>305.2</v>
       </c>
       <c r="F14">
-        <v>1029</v>
+        <v>547.05200000000002</v>
       </c>
       <c r="G14">
-        <v>5695.1379999999999</v>
+        <v>1185.597</v>
       </c>
       <c r="H14">
-        <v>33324.574000000001</v>
+        <v>15684.721</v>
       </c>
       <c r="I14">
-        <v>1088.002</v>
+        <v>667.61</v>
       </c>
       <c r="J14">
-        <v>22669.917000000001</v>
+        <v>10266.388000000001</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3360.6689999999999</v>
+        <v>682.02200000000005</v>
       </c>
       <c r="O14">
-        <v>26311.456999999999</v>
+        <v>11228.824000000001</v>
       </c>
       <c r="P14">
-        <v>22670.316999999999</v>
+        <v>10266.388000000001</v>
       </c>
       <c r="Q14">
-        <v>617.54200000000003</v>
+        <v>174.55600000000001</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>3400</v>
+        <v>2440</v>
       </c>
       <c r="T14">
-        <v>7013.1170000000002</v>
+        <v>4455.8969999999999</v>
       </c>
       <c r="U14">
-        <v>1691.0060000000001</v>
+        <v>535.62300000000005</v>
       </c>
       <c r="V14">
-        <v>772.10299999999995</v>
+        <v>433.98700000000002</v>
       </c>
       <c r="W14">
-        <v>-373.26</v>
+        <v>-122.029</v>
       </c>
       <c r="X14">
-        <v>396.31400000000002</v>
+        <v>-22.574000000000002</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>230.49</v>
+        <v>24.395</v>
       </c>
       <c r="AA14">
-        <v>382.38900000000001</v>
+        <v>173.51400000000001</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>342.48200000000003</v>
+        <v>56.186999999999998</v>
       </c>
       <c r="D15">
-        <v>1157.0219999999999</v>
+        <v>572.95699999999999</v>
       </c>
       <c r="E15">
-        <v>530.47900000000004</v>
+        <v>257.46600000000001</v>
       </c>
       <c r="F15">
-        <v>933.58100000000002</v>
+        <v>464.56400000000002</v>
       </c>
       <c r="G15">
-        <v>1702.1469999999999</v>
+        <v>747.22299999999996</v>
       </c>
       <c r="H15">
-        <v>32755.598999999998</v>
+        <v>15658.607</v>
       </c>
       <c r="I15">
-        <v>1259.452</v>
+        <v>566.82899999999995</v>
       </c>
       <c r="J15">
-        <v>22801.773000000001</v>
+        <v>9797.7199999999993</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1968,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-2390.0349999999999</v>
+        <v>-1146.5899999999999</v>
       </c>
       <c r="N15">
-        <v>2784.3229999999999</v>
+        <v>1298.53</v>
       </c>
       <c r="O15">
-        <v>25783.705999999998</v>
+        <v>11294.924000000001</v>
       </c>
       <c r="P15">
-        <v>23186.81</v>
+        <v>10506.183000000001</v>
       </c>
       <c r="Q15">
-        <v>-703.495</v>
+        <v>-45.866</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>6971.893</v>
+        <v>4363.683</v>
       </c>
       <c r="U15">
-        <v>1013.3680000000001</v>
+        <v>489.75700000000001</v>
       </c>
       <c r="V15">
-        <v>661.45100000000002</v>
+        <v>85.168000000000006</v>
       </c>
       <c r="W15">
-        <v>-389.09699999999998</v>
+        <v>-139.96700000000001</v>
       </c>
       <c r="X15">
-        <v>-1137.471</v>
+        <v>19.189</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>73.603999999999999</v>
+        <v>45.915999999999997</v>
       </c>
       <c r="AA15">
-        <v>342.48200000000003</v>
+        <v>56.186999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>407.42200000000003</v>
+        <v>78.545000000000002</v>
       </c>
       <c r="D16">
-        <v>1181.982</v>
+        <v>591.56299999999999</v>
       </c>
       <c r="E16">
-        <v>487.839</v>
+        <v>285.75599999999997</v>
       </c>
       <c r="F16">
-        <v>965.85799999999995</v>
+        <v>483.64299999999997</v>
       </c>
       <c r="G16">
-        <v>2153.9560000000001</v>
+        <v>804.82600000000002</v>
       </c>
       <c r="H16">
-        <v>30586.414000000001</v>
+        <v>16264.11</v>
       </c>
       <c r="I16">
-        <v>1147.425</v>
+        <v>674.10599999999999</v>
       </c>
       <c r="J16">
-        <v>21624.303</v>
+        <v>10568.565000000001</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2540.7829999999999</v>
+        <v>1181.453</v>
       </c>
       <c r="O16">
-        <v>24445.269</v>
+        <v>11982.029</v>
       </c>
       <c r="P16">
-        <v>21901.360000000001</v>
+        <v>11051.38</v>
       </c>
       <c r="Q16">
-        <v>652.44899999999996</v>
+        <v>29.312999999999999</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>6141.1450000000004</v>
+        <v>4282.0810000000001</v>
       </c>
       <c r="U16">
-        <v>1665.817</v>
+        <v>519.07000000000005</v>
       </c>
       <c r="V16">
-        <v>609.68600000000004</v>
+        <v>234.322</v>
       </c>
       <c r="W16">
-        <v>-404.79500000000002</v>
+        <v>-141.363</v>
       </c>
       <c r="X16">
-        <v>127.681</v>
+        <v>341.66399999999999</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>89.238</v>
+        <v>52.792000000000002</v>
       </c>
       <c r="AA16">
-        <v>407.42099999999999</v>
+        <v>78.545000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>252.80199999999999</v>
+        <v>81.974999999999994</v>
       </c>
       <c r="D17">
-        <v>1234.694</v>
+        <v>613.32600000000002</v>
       </c>
       <c r="E17">
-        <v>516.85699999999997</v>
+        <v>293.86500000000001</v>
       </c>
       <c r="F17">
-        <v>1007.408</v>
+        <v>491.82499999999999</v>
       </c>
       <c r="G17">
-        <v>1427.0550000000001</v>
+        <v>782.83799999999997</v>
       </c>
       <c r="H17">
-        <v>29672.165000000001</v>
+        <v>16180.023999999999</v>
       </c>
       <c r="I17">
-        <v>1150.9000000000001</v>
+        <v>726.12</v>
       </c>
       <c r="J17">
-        <v>21164.589</v>
+        <v>10874.398999999999</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2355.558</v>
+        <v>907.54399999999998</v>
       </c>
       <c r="O17">
-        <v>23779.971000000001</v>
+        <v>11975.657999999999</v>
       </c>
       <c r="P17">
-        <v>21202.36</v>
+        <v>11027.958000000001</v>
       </c>
       <c r="Q17">
-        <v>-847.81899999999996</v>
+        <v>-30.097000000000001</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>5892.1940000000004</v>
+        <v>4204.366</v>
       </c>
       <c r="U17">
-        <v>817.99800000000005</v>
+        <v>488.97300000000001</v>
       </c>
       <c r="V17">
-        <v>661.08500000000004</v>
+        <v>326.63600000000002</v>
       </c>
       <c r="W17">
-        <v>-404.834</v>
+        <v>-141.684</v>
       </c>
       <c r="X17">
-        <v>-1229.883</v>
+        <v>-227.881</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-269.60500000000002</v>
+        <v>-61.225999999999999</v>
       </c>
       <c r="AA17">
-        <v>252.80199999999999</v>
+        <v>81.974999999999994</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>405.88200000000001</v>
+        <v>126.286</v>
       </c>
       <c r="D18">
-        <v>1297.1199999999999</v>
+        <v>807.89200000000005</v>
       </c>
       <c r="E18">
-        <v>580.197</v>
+        <v>361.59</v>
       </c>
       <c r="F18">
-        <v>1069.165</v>
+        <v>683.62300000000005</v>
       </c>
       <c r="G18">
-        <v>1564.796</v>
+        <v>1396.17</v>
       </c>
       <c r="H18">
-        <v>29532.33</v>
+        <v>22070.019</v>
       </c>
       <c r="I18">
-        <v>1156.5809999999999</v>
+        <v>779.44500000000005</v>
       </c>
       <c r="J18">
-        <v>20852.992999999999</v>
+        <v>14586.393</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2419.3440000000001</v>
+        <v>817.18399999999997</v>
       </c>
       <c r="O18">
-        <v>23555.288</v>
+        <v>16049.369000000001</v>
       </c>
       <c r="P18">
-        <v>20855.093000000001</v>
+        <v>14586.393</v>
       </c>
       <c r="Q18">
-        <v>-205.71600000000001</v>
+        <v>31.111000000000001</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>3400</v>
+        <v>3020</v>
       </c>
       <c r="T18">
-        <v>5977.0420000000004</v>
+        <v>6020.65</v>
       </c>
       <c r="U18">
-        <v>612.28200000000004</v>
+        <v>520.08399999999995</v>
       </c>
       <c r="V18">
-        <v>798.19799999999998</v>
+        <v>436.73200000000003</v>
       </c>
       <c r="W18">
-        <v>-404.87700000000001</v>
+        <v>-149.655</v>
       </c>
       <c r="X18">
-        <v>-698.06200000000001</v>
+        <v>1514.328</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-33.771000000000001</v>
+        <v>71.484999999999999</v>
       </c>
       <c r="AA18">
-        <v>405.88200000000001</v>
+        <v>126.286</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>539.96799999999996</v>
+        <v>75.463999999999999</v>
       </c>
       <c r="D19">
-        <v>1207.9349999999999</v>
+        <v>741.97</v>
       </c>
       <c r="E19">
-        <v>523.73400000000004</v>
+        <v>319.92500000000001</v>
       </c>
       <c r="F19">
-        <v>967.70899999999995</v>
+        <v>611.31100000000004</v>
       </c>
       <c r="G19">
-        <v>1397.566</v>
+        <v>949.02099999999996</v>
       </c>
       <c r="H19">
-        <v>30482.454000000002</v>
+        <v>21516.679</v>
       </c>
       <c r="I19">
-        <v>1122.444</v>
+        <v>1001.3819999999999</v>
       </c>
       <c r="J19">
-        <v>20472.974999999999</v>
+        <v>13013.933999999999</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-1395.797</v>
+        <v>-845.33</v>
       </c>
       <c r="N19">
-        <v>3728.3989999999999</v>
+        <v>2561.8180000000002</v>
       </c>
       <c r="O19">
-        <v>24484.927</v>
+        <v>15735.118</v>
       </c>
       <c r="P19">
-        <v>21706.355</v>
+        <v>14528.797</v>
       </c>
       <c r="Q19">
-        <v>221.45</v>
+        <v>-236.55500000000001</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>5997.527</v>
+        <v>5781.5609999999997</v>
       </c>
       <c r="U19">
-        <v>833.73199999999997</v>
+        <v>283.529</v>
       </c>
       <c r="V19">
-        <v>674.79700000000003</v>
+        <v>108.518</v>
       </c>
       <c r="W19">
-        <v>-436.61099999999999</v>
+        <v>-172.80799999999999</v>
       </c>
       <c r="X19">
-        <v>57.421999999999997</v>
+        <v>-264.33</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>400.86399999999998</v>
+        <v>100.009</v>
       </c>
       <c r="AA19">
-        <v>539.96799999999996</v>
+        <v>75.463999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>473.779</v>
+        <v>173.21799999999999</v>
       </c>
       <c r="D20">
-        <v>1349.11</v>
+        <v>752.08399999999995</v>
       </c>
       <c r="E20">
-        <v>537.17200000000003</v>
+        <v>310.60599999999999</v>
       </c>
       <c r="F20">
-        <v>1117.421</v>
+        <v>558.31799999999998</v>
       </c>
       <c r="G20">
-        <v>1127.329</v>
+        <v>1092.165</v>
       </c>
       <c r="H20">
-        <v>30290.457999999999</v>
+        <v>21318.065999999999</v>
       </c>
       <c r="I20">
-        <v>1215.444</v>
+        <v>1016.179</v>
       </c>
       <c r="J20">
-        <v>20861.584999999999</v>
+        <v>14008.431</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3769.2640000000001</v>
+        <v>1366.662</v>
       </c>
       <c r="O20">
-        <v>24878.845000000001</v>
+        <v>15538.848</v>
       </c>
       <c r="P20">
-        <v>22071.377</v>
+        <v>14247.22</v>
       </c>
       <c r="Q20">
-        <v>-268.07499999999999</v>
+        <v>92.046000000000006</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>5411.6130000000003</v>
+        <v>5779.2179999999998</v>
       </c>
       <c r="U20">
-        <v>565.65700000000004</v>
+        <v>375.57499999999999</v>
       </c>
       <c r="V20">
-        <v>808.50900000000001</v>
+        <v>288.471</v>
       </c>
       <c r="W20">
-        <v>-466.20400000000001</v>
+        <v>-172.61500000000001</v>
       </c>
       <c r="X20">
-        <v>-733.54700000000003</v>
+        <v>-495.08100000000002</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>465.661</v>
+        <v>415.34699999999998</v>
       </c>
       <c r="AA20">
-        <v>473.77800000000002</v>
+        <v>173.21799999999999</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>420.84199999999998</v>
+        <v>92.882999999999996</v>
       </c>
       <c r="D21">
-        <v>1320.1369999999999</v>
+        <v>783.00900000000001</v>
       </c>
       <c r="E21">
-        <v>564.34400000000005</v>
+        <v>306.89699999999999</v>
       </c>
       <c r="F21">
-        <v>1069.3440000000001</v>
+        <v>567.34500000000003</v>
       </c>
       <c r="G21">
-        <v>1444.3050000000001</v>
+        <v>1179.279</v>
       </c>
       <c r="H21">
-        <v>30848.23</v>
+        <v>21339.883999999998</v>
       </c>
       <c r="I21">
-        <v>1307.7070000000001</v>
+        <v>1098.7729999999999</v>
       </c>
       <c r="J21">
-        <v>21804.134999999998</v>
+        <v>14154.912</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3497.569</v>
+        <v>1390.2739999999999</v>
       </c>
       <c r="O21">
-        <v>25495.386999999999</v>
+        <v>15723.553</v>
       </c>
       <c r="P21">
-        <v>22629.054</v>
+        <v>14330.2</v>
       </c>
       <c r="Q21">
-        <v>291.20400000000001</v>
+        <v>47.216000000000001</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>5352.8429999999998</v>
+        <v>5616.3310000000001</v>
       </c>
       <c r="U21">
-        <v>856.86099999999999</v>
+        <v>422.791</v>
       </c>
       <c r="V21">
-        <v>735.52200000000005</v>
+        <v>330.178</v>
       </c>
       <c r="W21">
-        <v>-480.43799999999999</v>
+        <v>-172.899</v>
       </c>
       <c r="X21">
-        <v>-25.677</v>
+        <v>-176.029</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>44.759</v>
+        <v>25.503</v>
       </c>
       <c r="AA21">
-        <v>420.84300000000002</v>
+        <v>92.882999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>393.13099999999997</v>
+        <v>134.184</v>
       </c>
       <c r="D22">
-        <v>1380.6210000000001</v>
+        <v>883.19</v>
       </c>
       <c r="E22">
-        <v>624.60500000000002</v>
+        <v>357.07900000000001</v>
       </c>
       <c r="F22">
-        <v>1136.502</v>
+        <v>668.46799999999996</v>
       </c>
       <c r="G22">
-        <v>1711.3150000000001</v>
+        <v>1037.904</v>
       </c>
       <c r="H22">
-        <v>30565.182000000001</v>
+        <v>21131.039000000001</v>
       </c>
       <c r="I22">
-        <v>1206.001</v>
+        <v>1092.3340000000001</v>
       </c>
       <c r="J22">
-        <v>22416.682000000001</v>
+        <v>14106.117</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2662.645</v>
+        <v>1286.81</v>
       </c>
       <c r="O22">
-        <v>25323.276000000002</v>
+        <v>15556.450999999999</v>
       </c>
       <c r="P22">
-        <v>22416.682000000001</v>
+        <v>14106.117</v>
       </c>
       <c r="Q22">
-        <v>-155.727</v>
+        <v>-85.742999999999995</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>3150</v>
+        <v>3000</v>
       </c>
       <c r="T22">
-        <v>5241.9059999999999</v>
+        <v>5574.5879999999997</v>
       </c>
       <c r="U22">
-        <v>701.13400000000001</v>
+        <v>337.048</v>
       </c>
       <c r="V22">
-        <v>805.85699999999997</v>
+        <v>443.20400000000001</v>
       </c>
       <c r="W22">
-        <v>-495.92899999999997</v>
+        <v>-172.33199999999999</v>
       </c>
       <c r="X22">
-        <v>-771.31100000000004</v>
+        <v>-365.53300000000002</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>24.786000000000001</v>
+        <v>180.077</v>
       </c>
       <c r="AA22">
-        <v>393.13099999999997</v>
+        <v>134.184</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>481.82900000000001</v>
+        <v>122.59</v>
       </c>
       <c r="D23">
-        <v>1336.7149999999999</v>
+        <v>787.649</v>
       </c>
       <c r="E23">
-        <v>573.255</v>
+        <v>323.10700000000003</v>
       </c>
       <c r="F23">
-        <v>1094.5029999999999</v>
+        <v>573.94799999999998</v>
       </c>
       <c r="G23">
-        <v>1399.731</v>
+        <v>622.14400000000001</v>
       </c>
       <c r="H23">
-        <v>31398.498</v>
+        <v>21016.967000000001</v>
       </c>
       <c r="I23">
-        <v>1167.1010000000001</v>
+        <v>1013.283</v>
       </c>
       <c r="J23">
-        <v>20784.293000000001</v>
+        <v>13781.68</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2632,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-3429.4140000000002</v>
+        <v>-1225.537</v>
       </c>
       <c r="N23">
-        <v>4730.37</v>
+        <v>1576.847</v>
       </c>
       <c r="O23">
-        <v>25880.427</v>
+        <v>15516.453</v>
       </c>
       <c r="P23">
-        <v>22975.821</v>
+        <v>14139.261</v>
       </c>
       <c r="Q23">
-        <v>103.94199999999999</v>
+        <v>-38.011000000000003</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>5518.0709999999999</v>
+        <v>5500.5140000000001</v>
       </c>
       <c r="U23">
-        <v>805.07600000000002</v>
+        <v>299.03699999999998</v>
       </c>
       <c r="V23">
-        <v>720.45799999999997</v>
+        <v>253.81800000000001</v>
       </c>
       <c r="W23">
-        <v>-496.73500000000001</v>
+        <v>-186.101</v>
       </c>
       <c r="X23">
-        <v>-421.25900000000001</v>
+        <v>-201.49299999999999</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-42.457999999999998</v>
+        <v>45.957000000000001</v>
       </c>
       <c r="AA23">
-        <v>481.82900000000001</v>
+        <v>122.59</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>456.22399999999999</v>
+        <v>101.26300000000001</v>
       </c>
       <c r="D24">
-        <v>1313.3330000000001</v>
+        <v>798.73800000000006</v>
       </c>
       <c r="E24">
-        <v>600.81700000000001</v>
+        <v>307.96899999999999</v>
       </c>
       <c r="F24">
-        <v>1073.2850000000001</v>
+        <v>591.77200000000005</v>
       </c>
       <c r="G24">
-        <v>1511.6980000000001</v>
+        <v>638.25400000000002</v>
       </c>
       <c r="H24">
-        <v>31379.782999999999</v>
+        <v>20915.866999999998</v>
       </c>
       <c r="I24">
-        <v>1209.518</v>
+        <v>976.82299999999998</v>
       </c>
       <c r="J24">
-        <v>21483.758000000002</v>
+        <v>13850.328</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>4062.7310000000002</v>
+        <v>1485.0709999999999</v>
       </c>
       <c r="O24">
-        <v>25904.97</v>
+        <v>15511.677</v>
       </c>
       <c r="P24">
-        <v>22934.741000000002</v>
+        <v>14133.592000000001</v>
       </c>
       <c r="Q24">
-        <v>79.204999999999998</v>
+        <v>31.248000000000001</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>5474.8130000000001</v>
+        <v>5404.19</v>
       </c>
       <c r="U24">
-        <v>884.28099999999995</v>
+        <v>330.28500000000003</v>
       </c>
       <c r="V24">
-        <v>973.49300000000005</v>
+        <v>330.88799999999998</v>
       </c>
       <c r="W24">
-        <v>-503.59800000000001</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>-608.70299999999997</v>
+        <v>-246.20699999999999</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>168.679</v>
+        <v>86.686000000000007</v>
       </c>
       <c r="AA24">
-        <v>456.22399999999999</v>
+        <v>101.26300000000001</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>505.57799999999997</v>
+        <v>112.995</v>
       </c>
       <c r="D25">
-        <v>1357.1679999999999</v>
+        <v>818.73599999999999</v>
       </c>
       <c r="E25">
-        <v>626.423</v>
+        <v>312.94799999999998</v>
       </c>
       <c r="F25">
-        <v>1102.9110000000001</v>
+        <v>602.82100000000003</v>
       </c>
       <c r="G25">
-        <v>1454.67</v>
+        <v>635.9</v>
       </c>
       <c r="H25">
-        <v>31668.848000000002</v>
+        <v>21003.617999999999</v>
       </c>
       <c r="I25">
-        <v>1240.713</v>
+        <v>1036.2190000000001</v>
       </c>
       <c r="J25">
-        <v>22077.210999999999</v>
+        <v>13974.541999999999</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3619.759</v>
+        <v>1537.52</v>
       </c>
       <c r="O25">
-        <v>26182.685000000001</v>
+        <v>15691.793</v>
       </c>
       <c r="P25">
-        <v>23086.415000000001</v>
+        <v>14241.941000000001</v>
       </c>
       <c r="Q25">
-        <v>-69.534000000000006</v>
+        <v>-7.3330000000000002</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>5486.1629999999996</v>
+        <v>5311.8249999999998</v>
       </c>
       <c r="U25">
-        <v>814.74699999999996</v>
+        <v>322.952</v>
       </c>
       <c r="V25">
-        <v>838.82299999999998</v>
+        <v>311.39299999999997</v>
       </c>
       <c r="W25">
-        <v>-518.49</v>
+        <v>-186.50399999999999</v>
       </c>
       <c r="X25">
-        <v>-627.42600000000004</v>
+        <v>-143.35499999999999</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>84.42</v>
+        <v>81.912999999999997</v>
       </c>
       <c r="AA25">
-        <v>505.57799999999997</v>
+        <v>112.995</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>395.26499999999999</v>
+        <v>226.99199999999999</v>
       </c>
       <c r="D26">
-        <v>1428.0129999999999</v>
+        <v>927.03099999999995</v>
       </c>
       <c r="E26">
-        <v>664.61900000000003</v>
+        <v>380.12799999999999</v>
       </c>
       <c r="F26">
-        <v>1186.0640000000001</v>
+        <v>706.75300000000004</v>
       </c>
       <c r="G26">
-        <v>1676.135</v>
+        <v>1726.5709999999999</v>
       </c>
       <c r="H26">
-        <v>31103.578000000001</v>
+        <v>22084.455000000002</v>
       </c>
       <c r="I26">
-        <v>1097.922</v>
+        <v>922.59</v>
       </c>
       <c r="J26">
-        <v>22977.103999999999</v>
+        <v>15394.489</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>2541.16</v>
+        <v>1150.1780000000001</v>
       </c>
       <c r="O26">
-        <v>26005.903999999999</v>
+        <v>16909.517</v>
       </c>
       <c r="P26">
-        <v>22977.103999999999</v>
+        <v>15394.489</v>
       </c>
       <c r="Q26">
-        <v>-254.68799999999999</v>
+        <v>606.40800000000002</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>3100</v>
+        <v>2700</v>
       </c>
       <c r="T26">
-        <v>5097.674</v>
+        <v>5174.9380000000001</v>
       </c>
       <c r="U26">
-        <v>560.05899999999997</v>
+        <v>929.36</v>
       </c>
       <c r="V26">
-        <v>839.92</v>
+        <v>377.26799999999997</v>
       </c>
       <c r="W26">
-        <v>-518.71900000000005</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>-887.35500000000002</v>
+        <v>511.851</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>14.015000000000001</v>
+        <v>100.935</v>
       </c>
       <c r="AA26">
-        <v>395.26499999999999</v>
+        <v>226.99199999999999</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>478.57</v>
+        <v>112.78700000000001</v>
       </c>
       <c r="D27">
-        <v>1345.7629999999999</v>
+        <v>827.14099999999996</v>
       </c>
       <c r="E27">
-        <v>621.6</v>
+        <v>339.34100000000001</v>
       </c>
       <c r="F27">
-        <v>1104.2449999999999</v>
+        <v>609.18299999999999</v>
       </c>
       <c r="G27">
-        <v>1177.3</v>
+        <v>2152.8339999999998</v>
       </c>
       <c r="H27">
-        <v>30946.093000000001</v>
+        <v>23743.59</v>
       </c>
       <c r="I27">
-        <v>1081.1849999999999</v>
+        <v>1082.809</v>
       </c>
       <c r="J27">
-        <v>20927.904999999999</v>
+        <v>15457.133</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-1738.7249999999999</v>
+        <v>-379.97399999999999</v>
       </c>
       <c r="N27">
-        <v>4662.41</v>
+        <v>3028.8310000000001</v>
       </c>
       <c r="O27">
-        <v>26050.241000000002</v>
+        <v>18671.036</v>
       </c>
       <c r="P27">
-        <v>23149.053</v>
+        <v>17152.418000000001</v>
       </c>
       <c r="Q27">
-        <v>-46.658999999999999</v>
+        <v>-589.40700000000004</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>4895.8519999999999</v>
+        <v>5072.5540000000001</v>
       </c>
       <c r="U27">
-        <v>513.4</v>
+        <v>339.95299999999997</v>
       </c>
       <c r="V27">
-        <v>785.69299999999998</v>
+        <v>310.02</v>
       </c>
       <c r="W27">
-        <v>-548.52099999999996</v>
+        <v>-201.411</v>
       </c>
       <c r="X27">
-        <v>-657.09</v>
+        <v>1268.8440000000001</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-7.7039999999999997</v>
+        <v>-357.54500000000002</v>
       </c>
       <c r="AA27">
-        <v>478.57</v>
+        <v>112.78700000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>382.82499999999999</v>
+        <v>74.22</v>
       </c>
       <c r="D28">
-        <v>1361.548</v>
+        <v>880.93200000000002</v>
       </c>
       <c r="E28">
-        <v>640.08000000000004</v>
+        <v>324.77600000000001</v>
       </c>
       <c r="F28">
-        <v>1116.403</v>
+        <v>659.57899999999995</v>
       </c>
       <c r="G28">
-        <v>1140.5940000000001</v>
+        <v>1238.5309999999999</v>
       </c>
       <c r="H28">
-        <v>30965.966</v>
+        <v>22884.262999999999</v>
       </c>
       <c r="I28">
-        <v>1205.2670000000001</v>
+        <v>1113.213</v>
       </c>
       <c r="J28">
-        <v>21827.514999999999</v>
+        <v>15070.536</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>4170.7700000000004</v>
+        <v>2714.3240000000001</v>
       </c>
       <c r="O28">
-        <v>26490.428</v>
+        <v>17973.187000000002</v>
       </c>
       <c r="P28">
-        <v>23422.685000000001</v>
+        <v>16438.845000000001</v>
       </c>
       <c r="Q28">
-        <v>-24.786000000000001</v>
+        <v>41.222000000000001</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>4475.5379999999996</v>
+        <v>4911.076</v>
       </c>
       <c r="U28">
-        <v>488.61399999999998</v>
+        <v>381.17500000000001</v>
       </c>
       <c r="V28">
-        <v>1023.89</v>
+        <v>312.108</v>
       </c>
       <c r="W28">
-        <v>-546.404</v>
+        <v>-201.96100000000001</v>
       </c>
       <c r="X28">
-        <v>-973.82799999999997</v>
+        <v>-976.99300000000005</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>206.41499999999999</v>
+        <v>-10.367000000000001</v>
       </c>
       <c r="AA28">
-        <v>382.82400000000001</v>
+        <v>74.22</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>514.61699999999996</v>
+        <v>179.227</v>
       </c>
       <c r="D29">
-        <v>1403.6379999999999</v>
+        <v>907.14499999999998</v>
       </c>
       <c r="E29">
-        <v>686.61699999999996</v>
+        <v>370.44299999999998</v>
       </c>
       <c r="F29">
-        <v>1144.6310000000001</v>
+        <v>678.05200000000002</v>
       </c>
       <c r="G29">
-        <v>1195.0219999999999</v>
+        <v>1529.991</v>
       </c>
       <c r="H29">
-        <v>31032.41</v>
+        <v>23658.366000000002</v>
       </c>
       <c r="I29">
-        <v>1290.3820000000001</v>
+        <v>1131.2570000000001</v>
       </c>
       <c r="J29">
-        <v>22122.87</v>
+        <v>16375.165999999999</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>3965.9969999999998</v>
+        <v>2254.5140000000001</v>
       </c>
       <c r="O29">
-        <v>26603.072</v>
+        <v>18811.699000000001</v>
       </c>
       <c r="P29">
-        <v>23410.357</v>
+        <v>17266.451000000001</v>
       </c>
       <c r="Q29">
-        <v>19.791</v>
+        <v>8.7929999999999993</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>4429.3379999999997</v>
+        <v>4846.6670000000004</v>
       </c>
       <c r="U29">
-        <v>508.40499999999997</v>
+        <v>389.96800000000002</v>
       </c>
       <c r="V29">
-        <v>909.87</v>
+        <v>337.51</v>
       </c>
       <c r="W29">
-        <v>-560.38199999999995</v>
+        <v>-201.482</v>
       </c>
       <c r="X29">
-        <v>-773.34500000000003</v>
+        <v>323.58800000000002</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>70.177000000000007</v>
+        <v>-37.491999999999997</v>
       </c>
       <c r="AA29">
-        <v>514.61699999999996</v>
+        <v>179.227</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>571.95000000000005</v>
+        <v>125.005</v>
       </c>
       <c r="D30">
-        <v>1427.692</v>
+        <v>1035.5809999999999</v>
       </c>
       <c r="E30">
-        <v>742.67200000000003</v>
+        <v>447.22399999999999</v>
       </c>
       <c r="F30">
-        <v>1181.98</v>
+        <v>806.37800000000004</v>
       </c>
       <c r="G30">
-        <v>2809.1709999999998</v>
+        <v>1834.499</v>
       </c>
       <c r="H30">
-        <v>32257.637999999999</v>
+        <v>23442.466</v>
       </c>
       <c r="I30">
-        <v>1175.0899999999999</v>
+        <v>1104.3440000000001</v>
       </c>
       <c r="J30">
-        <v>24632.463</v>
+        <v>17218.673999999999</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>2665.6680000000001</v>
+        <v>1457.1420000000001</v>
       </c>
       <c r="O30">
-        <v>27828.394</v>
+        <v>18978.453000000001</v>
       </c>
       <c r="P30">
-        <v>24632.463</v>
+        <v>17218.673999999999</v>
       </c>
       <c r="Q30">
-        <v>973.904</v>
+        <v>112.014</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="T30">
-        <v>4429.2439999999997</v>
+        <v>4464.0129999999999</v>
       </c>
       <c r="U30">
-        <v>1482.309</v>
+        <v>501.98200000000003</v>
       </c>
       <c r="V30">
-        <v>874.33500000000004</v>
+        <v>599.79399999999998</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>-199.417</v>
       </c>
       <c r="X30">
-        <v>494.19200000000001</v>
+        <v>-552.673</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>10.285</v>
+        <v>121.907</v>
       </c>
       <c r="AA30">
-        <v>571.95000000000005</v>
+        <v>125.005</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>621.48800000000006</v>
+        <v>99.284000000000006</v>
       </c>
       <c r="D31">
-        <v>1394.182</v>
+        <v>895.298</v>
       </c>
       <c r="E31">
-        <v>686.15800000000002</v>
+        <v>374.387</v>
       </c>
       <c r="F31">
-        <v>1138.8630000000001</v>
+        <v>662.41399999999999</v>
       </c>
       <c r="G31">
-        <v>1054.365</v>
+        <v>1343.046</v>
       </c>
       <c r="H31">
-        <v>31017.86</v>
+        <v>23503.125</v>
       </c>
       <c r="I31">
-        <v>1180.8510000000001</v>
+        <v>1066.471</v>
       </c>
       <c r="J31">
-        <v>22679.514999999999</v>
+        <v>16651.538</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3296,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-2649.9949999999999</v>
+        <v>-818.89800000000002</v>
       </c>
       <c r="N31">
-        <v>3570.8380000000002</v>
+        <v>2219.3560000000002</v>
       </c>
       <c r="O31">
-        <v>26782.844000000001</v>
+        <v>19079.21</v>
       </c>
       <c r="P31">
-        <v>23647.623</v>
+        <v>17445.745999999999</v>
       </c>
       <c r="Q31">
-        <v>-1115.1020000000001</v>
+        <v>-73.322999999999993</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>4235.0159999999996</v>
+        <v>4423.915</v>
       </c>
       <c r="U31">
-        <v>367.20699999999999</v>
+        <v>428.65899999999999</v>
       </c>
       <c r="V31">
-        <v>843.47699999999998</v>
+        <v>228.732</v>
       </c>
       <c r="W31">
-        <v>-606.08600000000001</v>
+        <v>-212.09200000000001</v>
       </c>
       <c r="X31">
-        <v>-1834.905</v>
+        <v>-102.949</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>50.914999999999999</v>
+        <v>23.085000000000001</v>
       </c>
       <c r="AA31">
-        <v>621.48800000000006</v>
+        <v>99.284000000000006</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>547.83900000000006</v>
+        <v>87.917000000000002</v>
       </c>
       <c r="D32">
-        <v>1385.059</v>
+        <v>922.947</v>
       </c>
       <c r="E32">
-        <v>681.55100000000004</v>
+        <v>357.11799999999999</v>
       </c>
       <c r="F32">
-        <v>1148.4680000000001</v>
+        <v>692.96</v>
       </c>
       <c r="G32">
-        <v>1403.298</v>
+        <v>1394.9970000000001</v>
       </c>
       <c r="H32">
-        <v>30843.14</v>
+        <v>23669.760999999999</v>
       </c>
       <c r="I32">
-        <v>1230.7750000000001</v>
+        <v>1127.78</v>
       </c>
       <c r="J32">
-        <v>22417.282999999999</v>
+        <v>17334.48</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>3852.63</v>
+        <v>1857.7280000000001</v>
       </c>
       <c r="O32">
-        <v>26766.510999999999</v>
+        <v>19380.495999999999</v>
       </c>
       <c r="P32">
-        <v>23505.002</v>
+        <v>17693.774000000001</v>
       </c>
       <c r="Q32">
-        <v>347.04</v>
+        <v>75.22</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>4076.6289999999999</v>
+        <v>4289.2650000000003</v>
       </c>
       <c r="U32">
-        <v>714.24699999999996</v>
+        <v>503.87900000000002</v>
       </c>
       <c r="V32">
-        <v>993.30499999999995</v>
+        <v>534.19200000000001</v>
       </c>
       <c r="W32">
-        <v>-604.08199999999999</v>
+        <v>-213.892</v>
       </c>
       <c r="X32">
-        <v>-751.15300000000002</v>
+        <v>-28.111000000000001</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>269.61399999999998</v>
+        <v>-205.489</v>
       </c>
       <c r="AA32">
-        <v>547.83799999999997</v>
+        <v>87.917000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>557.101</v>
+        <v>124.093</v>
       </c>
       <c r="D33">
-        <v>1387.021</v>
+        <v>935.59400000000005</v>
       </c>
       <c r="E33">
-        <v>722.73</v>
+        <v>368.72699999999998</v>
       </c>
       <c r="F33">
-        <v>1125.0530000000001</v>
+        <v>699.58199999999999</v>
       </c>
       <c r="G33">
-        <v>1430.848</v>
+        <v>1545.5429999999999</v>
       </c>
       <c r="H33">
-        <v>31079.692999999999</v>
+        <v>23764.275000000001</v>
       </c>
       <c r="I33">
-        <v>1268.0989999999999</v>
+        <v>1151.1759999999999</v>
       </c>
       <c r="J33">
-        <v>22584.974999999999</v>
+        <v>17865.150000000001</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>3898.038</v>
+        <v>1523.8989999999999</v>
       </c>
       <c r="O33">
-        <v>26984.255000000001</v>
+        <v>19571.28</v>
       </c>
       <c r="P33">
-        <v>23678.263999999999</v>
+        <v>17879.266</v>
       </c>
       <c r="Q33">
-        <v>-18.529</v>
+        <v>142.23699999999999</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>4095.4380000000001</v>
+        <v>4192.9949999999999</v>
       </c>
       <c r="U33">
-        <v>695.71799999999996</v>
+        <v>646.11599999999999</v>
       </c>
       <c r="V33">
-        <v>914.38400000000001</v>
+        <v>452.44</v>
       </c>
       <c r="W33">
-        <v>-619.44200000000001</v>
+        <v>-214.226</v>
       </c>
       <c r="X33">
-        <v>-742.24300000000005</v>
+        <v>-66.888999999999996</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>33.177</v>
+        <v>-39.938000000000002</v>
       </c>
       <c r="AA33">
-        <v>557.101</v>
+        <v>124.093</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>713.63</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>1461.126</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>763.81500000000005</v>
+        <v>414.85599999999999</v>
       </c>
       <c r="F34">
-        <v>1207.039</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>1653.8130000000001</v>
+        <v>2096.8969999999999</v>
       </c>
       <c r="H34">
-        <v>30686.223000000002</v>
+        <v>23422.749</v>
       </c>
       <c r="I34">
-        <v>1250.1610000000001</v>
+        <v>991.94799999999998</v>
       </c>
       <c r="J34">
-        <v>23305.535</v>
+        <v>18042.531999999999</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>2869.5720000000001</v>
+        <v>1372.6780000000001</v>
       </c>
       <c r="O34">
-        <v>26659.103999999999</v>
+        <v>19664.661</v>
       </c>
       <c r="P34">
-        <v>23305.535</v>
+        <v>18042.531999999999</v>
       </c>
       <c r="Q34">
-        <v>-181.38300000000001</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="T34">
-        <v>4027.1190000000001</v>
+        <v>3758.0880000000002</v>
       </c>
       <c r="U34">
-        <v>514.33500000000004</v>
+        <v>773.54399999999998</v>
       </c>
       <c r="V34">
-        <v>999.63</v>
+        <v>0</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-1153.963</v>
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>33.798000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>713.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>549.30899999999997</v>
+        <v>113.297</v>
       </c>
       <c r="D35">
-        <v>1364.8340000000001</v>
+        <v>918.49199999999996</v>
       </c>
       <c r="E35">
-        <v>733.15899999999999</v>
+        <v>364.09500000000003</v>
       </c>
       <c r="F35">
-        <v>1109.904</v>
+        <v>688.49900000000002</v>
       </c>
       <c r="G35">
-        <v>1185.261</v>
+        <v>1798.423</v>
       </c>
       <c r="H35">
-        <v>30841.776000000002</v>
+        <v>23287.488000000001</v>
       </c>
       <c r="I35">
-        <v>1157.4770000000001</v>
+        <v>981.90499999999997</v>
       </c>
       <c r="J35">
-        <v>21818.12</v>
+        <v>16755.07</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-2648.0340000000001</v>
+        <v>-2057.1529999999998</v>
       </c>
       <c r="N35">
-        <v>4084.8560000000002</v>
+        <v>2018.037</v>
       </c>
       <c r="O35">
-        <v>26915.952000000001</v>
+        <v>18956.827000000001</v>
       </c>
       <c r="P35">
-        <v>23708.159</v>
+        <v>17385.046999999999</v>
       </c>
       <c r="Q35">
-        <v>-77.533000000000001</v>
+        <v>124.78400000000001</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>3925.8240000000001</v>
+        <v>4330.6610000000001</v>
       </c>
       <c r="U35">
-        <v>436.80200000000002</v>
+        <v>898.32799999999997</v>
       </c>
       <c r="V35">
-        <v>837.34699999999998</v>
+        <v>434.81799999999998</v>
       </c>
       <c r="W35">
-        <v>-634.22199999999998</v>
+        <v>-27.38</v>
       </c>
       <c r="X35">
-        <v>-801.31799999999998</v>
+        <v>-144.82300000000001</v>
       </c>
       <c r="Y35">
-        <v>522.19399999999996</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>101.462</v>
+        <v>-12.817</v>
       </c>
       <c r="AA35">
-        <v>549.30899999999997</v>
+        <v>113.297</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>496.15899999999999</v>
+        <v>-14.231</v>
       </c>
       <c r="D36">
-        <v>1393.9860000000001</v>
+        <v>903.61199999999997</v>
       </c>
       <c r="E36">
-        <v>736.36199999999997</v>
+        <v>343.36500000000001</v>
       </c>
       <c r="F36">
-        <v>1150.1030000000001</v>
+        <v>686.44799999999998</v>
       </c>
       <c r="G36">
-        <v>1229.038</v>
+        <v>3557.7959999999998</v>
       </c>
       <c r="H36">
-        <v>30732.915000000001</v>
+        <v>25010.317999999999</v>
       </c>
       <c r="I36">
-        <v>1227.799</v>
+        <v>984.851</v>
       </c>
       <c r="J36">
-        <v>21852.744999999999</v>
+        <v>17562.201000000001</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>4267.2070000000003</v>
+        <v>1772.325</v>
       </c>
       <c r="O36">
-        <v>27137.918000000001</v>
+        <v>19513.343000000001</v>
       </c>
       <c r="P36">
-        <v>23845.272000000001</v>
+        <v>17936.402999999998</v>
       </c>
       <c r="Q36">
-        <v>42.973999999999997</v>
+        <v>1730.1030000000001</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>3594.9969999999998</v>
+        <v>5496.9750000000004</v>
       </c>
       <c r="U36">
-        <v>479.77600000000001</v>
+        <v>2628.431</v>
       </c>
       <c r="V36">
-        <v>1050.22</v>
+        <v>452.80900000000003</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>-39.981000000000002</v>
       </c>
       <c r="X36">
-        <v>-819.08299999999997</v>
+        <v>1496.0250000000001</v>
       </c>
       <c r="Y36">
-        <v>520.59299999999996</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-2.7789999999999999</v>
+        <v>-66.114000000000004</v>
       </c>
       <c r="AA36">
-        <v>496.15800000000002</v>
+        <v>-14.231</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>545.08799999999997</v>
+        <v>112.086</v>
       </c>
       <c r="D37">
-        <v>1414.954</v>
+        <v>924.93200000000002</v>
       </c>
       <c r="E37">
-        <v>775.61699999999996</v>
+        <v>352.63799999999998</v>
       </c>
       <c r="F37">
-        <v>1151.2090000000001</v>
+        <v>712.85699999999997</v>
       </c>
       <c r="G37">
-        <v>4441.5469999999996</v>
+        <v>4734.3310000000001</v>
       </c>
       <c r="H37">
-        <v>33844.226000000002</v>
+        <v>25976.603999999999</v>
       </c>
       <c r="I37">
-        <v>1324.11</v>
+        <v>1050.269</v>
       </c>
       <c r="J37">
-        <v>25279.868999999999</v>
+        <v>18521.683000000001</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>4294.7139999999999</v>
+        <v>1656.088</v>
       </c>
       <c r="O37">
-        <v>30537.187000000002</v>
+        <v>20345.192999999999</v>
       </c>
       <c r="P37">
-        <v>27162.491000000002</v>
+        <v>18684.420999999998</v>
       </c>
       <c r="Q37">
-        <v>3167.4540000000002</v>
+        <v>1117.2619999999999</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>3307.0390000000002</v>
+        <v>5631.4110000000001</v>
       </c>
       <c r="U37">
-        <v>3647.23</v>
+        <v>3745.6930000000002</v>
       </c>
       <c r="V37">
-        <v>960.62900000000002</v>
+        <v>453.65699999999998</v>
       </c>
       <c r="W37">
-        <v>-645.75800000000004</v>
+        <v>-40.331000000000003</v>
       </c>
       <c r="X37">
-        <v>2491.163</v>
+        <v>650.36699999999996</v>
       </c>
       <c r="Y37">
-        <v>486.16800000000001</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-60.866999999999997</v>
+        <v>136.65100000000001</v>
       </c>
       <c r="AA37">
-        <v>545.08799999999997</v>
+        <v>112.086</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>511.02800000000002</v>
+        <v>98.254999999999995</v>
       </c>
       <c r="D38">
-        <v>1486.7149999999999</v>
+        <v>1028.18</v>
       </c>
       <c r="E38">
-        <v>832.15099999999995</v>
+        <v>402.72899999999998</v>
       </c>
       <c r="F38">
-        <v>1227.6310000000001</v>
+        <v>813.36099999999999</v>
       </c>
       <c r="G38">
-        <v>1853.306</v>
+        <v>5364.576</v>
       </c>
       <c r="H38">
-        <v>31231.63</v>
+        <v>25948.266</v>
       </c>
       <c r="I38">
-        <v>1345.8820000000001</v>
+        <v>926.63</v>
       </c>
       <c r="J38">
-        <v>24163.23</v>
+        <v>18630.302</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2989.9760000000001</v>
+        <v>1397.384</v>
       </c>
       <c r="O38">
-        <v>28101.319</v>
+        <v>20234.931</v>
       </c>
       <c r="P38">
-        <v>24680.039000000001</v>
+        <v>18643.302</v>
       </c>
       <c r="Q38">
-        <v>-2977.857</v>
+        <v>212.02500000000001</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="T38">
-        <v>3130.3110000000001</v>
+        <v>5713.335</v>
       </c>
       <c r="U38">
-        <v>669.37300000000005</v>
+        <v>3957.7179999999998</v>
       </c>
       <c r="V38">
-        <v>959.63499999999999</v>
+        <v>379.23599999999999</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>-40.814999999999998</v>
       </c>
       <c r="X38">
-        <v>-3446.848</v>
+        <v>-118.92400000000001</v>
       </c>
       <c r="Y38">
-        <v>516.80899999999997</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-246.83600000000001</v>
+        <v>-22.242000000000001</v>
       </c>
       <c r="AA38">
-        <v>511.02800000000002</v>
+        <v>98.254999999999995</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>438.43900000000002</v>
+        <v>14.983000000000001</v>
       </c>
       <c r="D39">
-        <v>1352.26</v>
+        <v>925.07100000000003</v>
       </c>
       <c r="E39">
-        <v>793.49</v>
+        <v>355.46899999999999</v>
       </c>
       <c r="F39">
-        <v>1104.662</v>
+        <v>716.28</v>
       </c>
       <c r="G39">
-        <v>4558.143</v>
+        <v>4320.2110000000002</v>
       </c>
       <c r="H39">
-        <v>34121.114000000001</v>
+        <v>24977.276000000002</v>
       </c>
       <c r="I39">
-        <v>1253.7570000000001</v>
+        <v>952.52599999999995</v>
       </c>
       <c r="J39">
-        <v>25046.085999999999</v>
+        <v>16184.703</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-3006.3420000000001</v>
+        <v>-2879.127</v>
       </c>
       <c r="N39">
-        <v>5406.7849999999999</v>
+        <v>3137.7649999999999</v>
       </c>
       <c r="O39">
-        <v>31397.967000000001</v>
+        <v>19487.655999999999</v>
       </c>
       <c r="P39">
-        <v>28074.791000000001</v>
+        <v>17900.489000000001</v>
       </c>
       <c r="Q39">
-        <v>3055.48</v>
+        <v>-631.07600000000002</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>2723.1469999999999</v>
+        <v>5489.62</v>
       </c>
       <c r="U39">
-        <v>3724.8530000000001</v>
+        <v>3326.6419999999998</v>
       </c>
       <c r="V39">
-        <v>741.30700000000002</v>
+        <v>448.38900000000001</v>
       </c>
       <c r="W39">
-        <v>-645.25900000000001</v>
+        <v>-177.13</v>
       </c>
       <c r="X39">
-        <v>2527.8530000000001</v>
+        <v>-1040.1400000000001</v>
       </c>
       <c r="Y39">
-        <v>488.67200000000003</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>106.908</v>
+        <v>17.643999999999998</v>
       </c>
       <c r="AA39">
-        <v>438.43900000000002</v>
+        <v>14.983000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>255.048</v>
+        <v>151.839</v>
       </c>
       <c r="D40">
-        <v>1060.441</v>
+        <v>933.56600000000003</v>
       </c>
       <c r="E40">
-        <v>1457.6949999999999</v>
+        <v>343.58800000000002</v>
       </c>
       <c r="F40">
-        <v>858.52</v>
+        <v>728.58199999999999</v>
       </c>
       <c r="G40">
-        <v>4789.0950000000003</v>
+        <v>3316.33</v>
       </c>
       <c r="H40">
-        <v>34026.17</v>
+        <v>23924.616000000002</v>
       </c>
       <c r="I40">
-        <v>1216.8309999999999</v>
+        <v>920.77800000000002</v>
       </c>
       <c r="J40">
-        <v>25087.667000000001</v>
+        <v>16305.004999999999</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>5469.2820000000002</v>
+        <v>2055.9720000000002</v>
       </c>
       <c r="O40">
-        <v>31503.339</v>
+        <v>18516.117999999999</v>
       </c>
       <c r="P40">
-        <v>27788.298999999999</v>
+        <v>17093.522000000001</v>
       </c>
       <c r="Q40">
-        <v>-418.75299999999999</v>
+        <v>-1033.4000000000001</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>2522.8310000000001</v>
+        <v>5408.4979999999996</v>
       </c>
       <c r="U40">
-        <v>3306.1</v>
+        <v>2293.2420000000002</v>
       </c>
       <c r="V40">
-        <v>73.004999999999995</v>
+        <v>328.77199999999999</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>-175.024</v>
       </c>
       <c r="X40">
-        <v>-356.88</v>
+        <v>-1103.6300000000001</v>
       </c>
       <c r="Y40">
-        <v>486.71</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-4.867</v>
+        <v>-106.761</v>
       </c>
       <c r="AA40">
-        <v>255.047</v>
+        <v>151.839</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>146.76</v>
+        <v>231.458</v>
       </c>
       <c r="D41">
-        <v>1058.7739999999999</v>
+        <v>979.27499999999998</v>
       </c>
       <c r="E41">
-        <v>1452.2950000000001</v>
+        <v>383.16800000000001</v>
       </c>
       <c r="F41">
-        <v>836.25599999999997</v>
+        <v>759.84400000000005</v>
       </c>
       <c r="G41">
-        <v>2631.4079999999999</v>
+        <v>2045.742</v>
       </c>
       <c r="H41">
-        <v>31661.575000000001</v>
+        <v>24788.287</v>
       </c>
       <c r="I41">
-        <v>1299.0619999999999</v>
+        <v>984.24</v>
       </c>
       <c r="J41">
-        <v>24107.258999999998</v>
+        <v>17406.526999999998</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>4402.777</v>
+        <v>1499.002</v>
       </c>
       <c r="O41">
-        <v>29458.166000000001</v>
+        <v>19094.738000000001</v>
       </c>
       <c r="P41">
-        <v>25657.135999999999</v>
+        <v>17510.266</v>
       </c>
       <c r="Q41">
-        <v>-2223.7869999999998</v>
+        <v>-1281.6679999999999</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>2203.4090000000001</v>
+        <v>5693.549</v>
       </c>
       <c r="U41">
-        <v>1082.3130000000001</v>
+        <v>1011.574</v>
       </c>
       <c r="V41">
-        <v>617.30899999999997</v>
+        <v>508.31099999999998</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>-176.58199999999999</v>
       </c>
       <c r="X41">
-        <v>-2729.57</v>
+        <v>-1217.6980000000001</v>
       </c>
       <c r="Y41">
-        <v>484.74799999999999</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-60.677</v>
+        <v>79.697999999999993</v>
       </c>
       <c r="AA41">
-        <v>146.76</v>
+        <v>231.458</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>218.75800000000001</v>
+      </c>
+      <c r="D42">
+        <v>1119.7180000000001</v>
+      </c>
+      <c r="E42">
+        <v>426.73599999999999</v>
+      </c>
+      <c r="F42">
+        <v>887.14499999999998</v>
+      </c>
+      <c r="G42">
+        <v>2281.203</v>
+      </c>
+      <c r="H42">
+        <v>24857.429</v>
+      </c>
+      <c r="I42">
+        <v>954.73800000000006</v>
+      </c>
+      <c r="J42">
+        <v>17473.759999999998</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1576.2929999999999</v>
+      </c>
+      <c r="O42">
+        <v>19138.207999999999</v>
+      </c>
+      <c r="P42">
+        <v>17493.259999999998</v>
+      </c>
+      <c r="Q42">
+        <v>-214.85599999999999</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>3500</v>
+      </c>
+      <c r="T42">
+        <v>5719.2209999999995</v>
+      </c>
+      <c r="U42">
+        <v>796.71799999999996</v>
+      </c>
+      <c r="V42">
+        <v>469.738</v>
+      </c>
+      <c r="W42">
+        <v>-235.14500000000001</v>
+      </c>
+      <c r="X42">
+        <v>-308.04700000000003</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>81.331000000000003</v>
+      </c>
+      <c r="AA42">
+        <v>218.75800000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>180.24600000000001</v>
+      </c>
+      <c r="D43">
+        <v>1019.874</v>
+      </c>
+      <c r="E43">
+        <v>372.65</v>
+      </c>
+      <c r="F43">
+        <v>794.82899999999995</v>
+      </c>
+      <c r="G43">
+        <v>1659.9</v>
+      </c>
+      <c r="H43">
+        <v>24569.273000000001</v>
+      </c>
+      <c r="I43">
+        <v>1014.413</v>
+      </c>
+      <c r="J43">
+        <v>16571.093000000001</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-295.2</v>
+      </c>
+      <c r="N43">
+        <v>2169.2550000000001</v>
+      </c>
+      <c r="O43">
+        <v>18918.987000000001</v>
+      </c>
+      <c r="P43">
+        <v>17187.62</v>
+      </c>
+      <c r="Q43">
+        <v>-160.66800000000001</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>5650.2860000000001</v>
+      </c>
+      <c r="U43">
+        <v>636.04999999999995</v>
+      </c>
+      <c r="V43">
+        <v>452.30500000000001</v>
+      </c>
+      <c r="W43">
+        <v>-235.28299999999999</v>
+      </c>
+      <c r="X43">
+        <v>-600.94399999999996</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>44.244</v>
+      </c>
+      <c r="AA43">
+        <v>180.24600000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>205.95500000000001</v>
+      </c>
+      <c r="D44">
+        <v>1040.8610000000001</v>
+      </c>
+      <c r="E44">
+        <v>381.89499999999998</v>
+      </c>
+      <c r="F44">
+        <v>813.48099999999999</v>
+      </c>
+      <c r="G44">
+        <v>1825.2080000000001</v>
+      </c>
+      <c r="H44">
+        <v>24534.022000000001</v>
+      </c>
+      <c r="I44">
+        <v>1049.3130000000001</v>
+      </c>
+      <c r="J44">
+        <v>16784.421999999999</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1901.71</v>
+      </c>
+      <c r="O44">
+        <v>18874.759999999998</v>
+      </c>
+      <c r="P44">
+        <v>17029.393</v>
+      </c>
+      <c r="Q44">
+        <v>153.66300000000001</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>5659.2619999999997</v>
+      </c>
+      <c r="U44">
+        <v>789.71299999999997</v>
+      </c>
+      <c r="V44">
+        <v>445.74299999999999</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-451.02</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>142.09299999999999</v>
+      </c>
+      <c r="AA44">
+        <v>205.95500000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>274.834</v>
+      </c>
+      <c r="D45">
+        <v>1074.3599999999999</v>
+      </c>
+      <c r="E45">
+        <v>413.92200000000003</v>
+      </c>
+      <c r="F45">
+        <v>838.68399999999997</v>
+      </c>
+      <c r="G45">
+        <v>1640.9390000000001</v>
+      </c>
+      <c r="H45">
+        <v>25575.207999999999</v>
+      </c>
+      <c r="I45">
+        <v>1151.19</v>
+      </c>
+      <c r="J45">
+        <v>17885.762999999999</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1847.6579999999999</v>
+      </c>
+      <c r="O45">
+        <v>19891.84</v>
+      </c>
+      <c r="P45">
+        <v>18004.460999999999</v>
+      </c>
+      <c r="Q45">
+        <v>-213.89599999999999</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>5683.3680000000004</v>
+      </c>
+      <c r="U45">
+        <v>575.81700000000001</v>
+      </c>
+      <c r="V45">
+        <v>601.09299999999996</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>454.44200000000001</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>16.616</v>
+      </c>
+      <c r="AA45">
+        <v>274.834</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>363.76400000000001</v>
+      </c>
+      <c r="D46">
+        <v>1171.338</v>
+      </c>
+      <c r="E46">
+        <v>486.73099999999999</v>
+      </c>
+      <c r="F46">
+        <v>933.11300000000006</v>
+      </c>
+      <c r="G46">
+        <v>2280.317</v>
+      </c>
+      <c r="H46">
+        <v>26216.924999999999</v>
+      </c>
+      <c r="I46">
+        <v>957.31200000000001</v>
+      </c>
+      <c r="J46">
+        <v>18446.439999999999</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1777.981</v>
+      </c>
+      <c r="O46">
+        <v>20404.691999999999</v>
+      </c>
+      <c r="P46">
+        <v>18456.439999999999</v>
+      </c>
+      <c r="Q46">
+        <v>222.833</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>3300</v>
+      </c>
+      <c r="T46">
+        <v>5812.2330000000002</v>
+      </c>
+      <c r="U46">
+        <v>798.65</v>
+      </c>
+      <c r="V46">
+        <v>506.74599999999998</v>
+      </c>
+      <c r="W46">
+        <v>-265.16734000000002</v>
+      </c>
+      <c r="X46">
+        <v>-412.39100000000002</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>117.684</v>
+      </c>
+      <c r="AA46">
+        <v>363.76400000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>646.24400000000003</v>
+      </c>
+      <c r="D47">
+        <v>1118.9690000000001</v>
+      </c>
+      <c r="E47">
+        <v>417.08499999999998</v>
+      </c>
+      <c r="F47">
+        <v>886.34100000000001</v>
+      </c>
+      <c r="G47">
+        <v>1298.8340000000001</v>
+      </c>
+      <c r="H47">
+        <v>32417.465</v>
+      </c>
+      <c r="I47">
+        <v>1127.7940000000001</v>
+      </c>
+      <c r="J47">
+        <v>22176.83</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-2242.4479999999999</v>
+      </c>
+      <c r="N47">
+        <v>2470.2399999999998</v>
+      </c>
+      <c r="O47">
+        <v>24861.544000000002</v>
+      </c>
+      <c r="P47">
+        <v>22808.962</v>
+      </c>
+      <c r="Q47">
+        <v>81.899000000000001</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>7555.9210000000003</v>
+      </c>
+      <c r="U47">
+        <v>880.54899999999998</v>
+      </c>
+      <c r="V47">
+        <v>572.95399999999995</v>
+      </c>
+      <c r="W47">
+        <v>-280.03399999999999</v>
+      </c>
+      <c r="X47">
+        <v>2684.252</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>7.7320000000000002</v>
+      </c>
+      <c r="AA47">
+        <v>646.24400000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>216.28</v>
+      </c>
+      <c r="D48">
+        <v>1188.066</v>
+      </c>
+      <c r="E48">
+        <v>423.91699999999997</v>
+      </c>
+      <c r="F48">
+        <v>935.7</v>
+      </c>
+      <c r="G48">
+        <v>1062.5160000000001</v>
+      </c>
+      <c r="H48">
+        <v>31986.582999999999</v>
+      </c>
+      <c r="I48">
+        <v>1168.636</v>
+      </c>
+      <c r="J48">
+        <v>22218.453000000001</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>2153.9769999999999</v>
+      </c>
+      <c r="O48">
+        <v>24592.505000000001</v>
+      </c>
+      <c r="P48">
+        <v>22472.758000000002</v>
+      </c>
+      <c r="Q48">
+        <v>-242.05</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>7394.0780000000004</v>
+      </c>
+      <c r="U48">
+        <v>638.49900000000002</v>
+      </c>
+      <c r="V48">
+        <v>626.23599999999999</v>
+      </c>
+      <c r="W48">
+        <v>-304.05</v>
+      </c>
+      <c r="X48">
+        <v>-657.44399999999996</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>4.351</v>
+      </c>
+      <c r="AA48">
+        <v>216.279</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>255.755</v>
+      </c>
+      <c r="D49">
+        <v>1228.617</v>
+      </c>
+      <c r="E49">
+        <v>456.39699999999999</v>
+      </c>
+      <c r="F49">
+        <v>965.16899999999998</v>
+      </c>
+      <c r="G49">
+        <v>912.70899999999995</v>
+      </c>
+      <c r="H49">
+        <v>31977.976999999999</v>
+      </c>
+      <c r="I49">
+        <v>1204.4380000000001</v>
+      </c>
+      <c r="J49">
+        <v>22550.588</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1955.854</v>
+      </c>
+      <c r="O49">
+        <v>24802.93</v>
+      </c>
+      <c r="P49">
+        <v>22573.534</v>
+      </c>
+      <c r="Q49">
+        <v>-185.78700000000001</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>7175.0469999999996</v>
+      </c>
+      <c r="U49">
+        <v>452.71199999999999</v>
+      </c>
+      <c r="V49">
+        <v>627.95500000000004</v>
+      </c>
+      <c r="W49">
+        <v>-319.34199999999998</v>
+      </c>
+      <c r="X49">
+        <v>-455.86200000000002</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-185.67400000000001</v>
+      </c>
+      <c r="AA49">
+        <v>255.755</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>316.21699999999998</v>
+      </c>
+      <c r="D50">
+        <v>1344.432</v>
+      </c>
+      <c r="E50">
+        <v>521.30100000000004</v>
+      </c>
+      <c r="F50">
+        <v>1074.875</v>
+      </c>
+      <c r="G50">
+        <v>2165.3960000000002</v>
+      </c>
+      <c r="H50">
+        <v>32586.606</v>
+      </c>
+      <c r="I50">
+        <v>1174.972</v>
+      </c>
+      <c r="J50">
+        <v>23113.007000000001</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>2014.0160000000001</v>
+      </c>
+      <c r="O50">
+        <v>25515.510999999999</v>
+      </c>
+      <c r="P50">
+        <v>23114.507000000001</v>
+      </c>
+      <c r="Q50">
+        <v>731.80600000000004</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>3400</v>
+      </c>
+      <c r="T50">
+        <v>7071.0950000000003</v>
+      </c>
+      <c r="U50">
+        <v>1184.518</v>
+      </c>
+      <c r="V50">
+        <v>685.92700000000002</v>
+      </c>
+      <c r="W50">
+        <v>-341.12700000000001</v>
+      </c>
+      <c r="X50">
+        <v>-117.479</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>424.95400000000001</v>
+      </c>
+      <c r="AA50">
+        <v>316.21699999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>283.97199999999998</v>
+      </c>
+      <c r="D51">
+        <v>1060.8230000000001</v>
+      </c>
+      <c r="E51">
+        <v>454.11</v>
+      </c>
+      <c r="F51">
+        <v>859.15300000000002</v>
+      </c>
+      <c r="G51">
+        <v>1295.2760000000001</v>
+      </c>
+      <c r="H51">
+        <v>31886.123</v>
+      </c>
+      <c r="I51">
+        <v>1231.298</v>
+      </c>
+      <c r="J51">
+        <v>22442.201000000001</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-1115.992</v>
+      </c>
+      <c r="N51">
+        <v>2188.1320000000001</v>
+      </c>
+      <c r="O51">
+        <v>24875.433000000001</v>
+      </c>
+      <c r="P51">
+        <v>22573.814999999999</v>
+      </c>
+      <c r="Q51">
+        <v>-354.55200000000002</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>7010.69</v>
+      </c>
+      <c r="U51">
+        <v>829.96600000000001</v>
+      </c>
+      <c r="V51">
+        <v>550.51300000000003</v>
+      </c>
+      <c r="W51">
+        <v>-357.37400000000002</v>
+      </c>
+      <c r="X51">
+        <v>-892.83799999999997</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>184.43299999999999</v>
+      </c>
+      <c r="AA51">
+        <v>283.97300000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>1084.9929999999999</v>
+      </c>
+      <c r="E52">
+        <v>491.38799999999998</v>
+      </c>
+      <c r="F52">
+        <v>880.846</v>
+      </c>
+      <c r="G52">
+        <v>1591.5170000000001</v>
+      </c>
+      <c r="H52">
+        <v>32015.136999999999</v>
+      </c>
+      <c r="I52">
+        <v>1273.211</v>
+      </c>
+      <c r="J52">
+        <v>22572.895</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>2225.203</v>
+      </c>
+      <c r="O52">
+        <v>25028.871999999999</v>
+      </c>
+      <c r="P52">
+        <v>22688.621999999999</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>6986.2650000000003</v>
+      </c>
+      <c r="U52">
+        <v>1095.829</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>340.77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>312.50900000000001</v>
+      </c>
+      <c r="D53">
+        <v>1146.877</v>
+      </c>
+      <c r="E53">
+        <v>529.89300000000003</v>
+      </c>
+      <c r="F53">
+        <v>929.73900000000003</v>
+      </c>
+      <c r="G53">
+        <v>1736.914</v>
+      </c>
+      <c r="H53">
+        <v>32111.409</v>
+      </c>
+      <c r="I53">
+        <v>1328.0889999999999</v>
+      </c>
+      <c r="J53">
+        <v>22710.815999999999</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>2193.5889999999999</v>
+      </c>
+      <c r="O53">
+        <v>25127.124</v>
+      </c>
+      <c r="P53">
+        <v>22734.254000000001</v>
+      </c>
+      <c r="Q53">
+        <v>3.492</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>6984.2849999999999</v>
+      </c>
+      <c r="U53">
+        <v>1099.3209999999999</v>
+      </c>
+      <c r="V53">
+        <v>695.94399999999996</v>
+      </c>
+      <c r="W53">
+        <v>-357.721</v>
+      </c>
+      <c r="X53">
+        <v>-412.95</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-23.707000000000001</v>
+      </c>
+      <c r="AA53">
+        <v>312.50900000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>382.38900000000001</v>
+      </c>
+      <c r="D54">
+        <v>1251.1559999999999</v>
+      </c>
+      <c r="E54">
+        <v>520.36099999999999</v>
+      </c>
+      <c r="F54">
+        <v>1029</v>
+      </c>
+      <c r="G54">
+        <v>5695.1379999999999</v>
+      </c>
+      <c r="H54">
+        <v>33324.574000000001</v>
+      </c>
+      <c r="I54">
+        <v>1088.002</v>
+      </c>
+      <c r="J54">
+        <v>22669.917000000001</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>3360.6689999999999</v>
+      </c>
+      <c r="O54">
+        <v>26311.456999999999</v>
+      </c>
+      <c r="P54">
+        <v>22670.316999999999</v>
+      </c>
+      <c r="Q54">
+        <v>617.54200000000003</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>3400</v>
+      </c>
+      <c r="T54">
+        <v>7013.1170000000002</v>
+      </c>
+      <c r="U54">
+        <v>1691.0060000000001</v>
+      </c>
+      <c r="V54">
+        <v>772.10299999999995</v>
+      </c>
+      <c r="W54">
+        <v>-373.26</v>
+      </c>
+      <c r="X54">
+        <v>396.31400000000002</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>230.49</v>
+      </c>
+      <c r="AA54">
+        <v>382.38900000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>342.48200000000003</v>
+      </c>
+      <c r="D55">
+        <v>1157.0219999999999</v>
+      </c>
+      <c r="E55">
+        <v>530.47900000000004</v>
+      </c>
+      <c r="F55">
+        <v>933.58100000000002</v>
+      </c>
+      <c r="G55">
+        <v>1702.1469999999999</v>
+      </c>
+      <c r="H55">
+        <v>32755.598999999998</v>
+      </c>
+      <c r="I55">
+        <v>1259.452</v>
+      </c>
+      <c r="J55">
+        <v>22801.773000000001</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-2390.0349999999999</v>
+      </c>
+      <c r="N55">
+        <v>2784.3229999999999</v>
+      </c>
+      <c r="O55">
+        <v>25783.705999999998</v>
+      </c>
+      <c r="P55">
+        <v>23186.81</v>
+      </c>
+      <c r="Q55">
+        <v>-703.495</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>6971.893</v>
+      </c>
+      <c r="U55">
+        <v>1013.3680000000001</v>
+      </c>
+      <c r="V55">
+        <v>661.45100000000002</v>
+      </c>
+      <c r="W55">
+        <v>-389.09699999999998</v>
+      </c>
+      <c r="X55">
+        <v>-1137.471</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>73.603999999999999</v>
+      </c>
+      <c r="AA55">
+        <v>342.48200000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>407.42200000000003</v>
+      </c>
+      <c r="D56">
+        <v>1181.982</v>
+      </c>
+      <c r="E56">
+        <v>487.839</v>
+      </c>
+      <c r="F56">
+        <v>965.85799999999995</v>
+      </c>
+      <c r="G56">
+        <v>2153.9560000000001</v>
+      </c>
+      <c r="H56">
+        <v>30586.414000000001</v>
+      </c>
+      <c r="I56">
+        <v>1147.425</v>
+      </c>
+      <c r="J56">
+        <v>21624.303</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2540.7829999999999</v>
+      </c>
+      <c r="O56">
+        <v>24445.269</v>
+      </c>
+      <c r="P56">
+        <v>21901.360000000001</v>
+      </c>
+      <c r="Q56">
+        <v>652.44899999999996</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>6141.1450000000004</v>
+      </c>
+      <c r="U56">
+        <v>1665.817</v>
+      </c>
+      <c r="V56">
+        <v>609.68600000000004</v>
+      </c>
+      <c r="W56">
+        <v>-404.79500000000002</v>
+      </c>
+      <c r="X56">
+        <v>127.681</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>89.238</v>
+      </c>
+      <c r="AA56">
+        <v>407.42099999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>252.80199999999999</v>
+      </c>
+      <c r="D57">
+        <v>1234.694</v>
+      </c>
+      <c r="E57">
+        <v>516.85699999999997</v>
+      </c>
+      <c r="F57">
+        <v>1007.408</v>
+      </c>
+      <c r="G57">
+        <v>1427.0550000000001</v>
+      </c>
+      <c r="H57">
+        <v>29672.165000000001</v>
+      </c>
+      <c r="I57">
+        <v>1150.9000000000001</v>
+      </c>
+      <c r="J57">
+        <v>21164.589</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>2355.558</v>
+      </c>
+      <c r="O57">
+        <v>23779.971000000001</v>
+      </c>
+      <c r="P57">
+        <v>21202.36</v>
+      </c>
+      <c r="Q57">
+        <v>-847.81899999999996</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>5892.1940000000004</v>
+      </c>
+      <c r="U57">
+        <v>817.99800000000005</v>
+      </c>
+      <c r="V57">
+        <v>661.08500000000004</v>
+      </c>
+      <c r="W57">
+        <v>-404.834</v>
+      </c>
+      <c r="X57">
+        <v>-1229.883</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-269.60500000000002</v>
+      </c>
+      <c r="AA57">
+        <v>252.80199999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>405.88200000000001</v>
+      </c>
+      <c r="D58">
+        <v>1297.1199999999999</v>
+      </c>
+      <c r="E58">
+        <v>580.197</v>
+      </c>
+      <c r="F58">
+        <v>1069.165</v>
+      </c>
+      <c r="G58">
+        <v>1564.796</v>
+      </c>
+      <c r="H58">
+        <v>29532.33</v>
+      </c>
+      <c r="I58">
+        <v>1156.5809999999999</v>
+      </c>
+      <c r="J58">
+        <v>20852.992999999999</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2419.3440000000001</v>
+      </c>
+      <c r="O58">
+        <v>23555.288</v>
+      </c>
+      <c r="P58">
+        <v>20855.093000000001</v>
+      </c>
+      <c r="Q58">
+        <v>-205.71600000000001</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>3400</v>
+      </c>
+      <c r="T58">
+        <v>5977.0420000000004</v>
+      </c>
+      <c r="U58">
+        <v>612.28200000000004</v>
+      </c>
+      <c r="V58">
+        <v>798.19799999999998</v>
+      </c>
+      <c r="W58">
+        <v>-404.87700000000001</v>
+      </c>
+      <c r="X58">
+        <v>-698.06200000000001</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-33.771000000000001</v>
+      </c>
+      <c r="AA58">
+        <v>405.88200000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>539.96799999999996</v>
+      </c>
+      <c r="D59">
+        <v>1207.9349999999999</v>
+      </c>
+      <c r="E59">
+        <v>523.73400000000004</v>
+      </c>
+      <c r="F59">
+        <v>967.70899999999995</v>
+      </c>
+      <c r="G59">
+        <v>1397.566</v>
+      </c>
+      <c r="H59">
+        <v>30482.454000000002</v>
+      </c>
+      <c r="I59">
+        <v>1122.444</v>
+      </c>
+      <c r="J59">
+        <v>20472.974999999999</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-1395.797</v>
+      </c>
+      <c r="N59">
+        <v>3728.3989999999999</v>
+      </c>
+      <c r="O59">
+        <v>24484.927</v>
+      </c>
+      <c r="P59">
+        <v>21706.355</v>
+      </c>
+      <c r="Q59">
+        <v>221.45</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>5997.527</v>
+      </c>
+      <c r="U59">
+        <v>833.73199999999997</v>
+      </c>
+      <c r="V59">
+        <v>674.79700000000003</v>
+      </c>
+      <c r="W59">
+        <v>-436.61099999999999</v>
+      </c>
+      <c r="X59">
+        <v>57.421999999999997</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>400.86399999999998</v>
+      </c>
+      <c r="AA59">
+        <v>539.96799999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>473.779</v>
+      </c>
+      <c r="D60">
+        <v>1349.11</v>
+      </c>
+      <c r="E60">
+        <v>537.17200000000003</v>
+      </c>
+      <c r="F60">
+        <v>1117.421</v>
+      </c>
+      <c r="G60">
+        <v>1127.329</v>
+      </c>
+      <c r="H60">
+        <v>30290.457999999999</v>
+      </c>
+      <c r="I60">
+        <v>1215.444</v>
+      </c>
+      <c r="J60">
+        <v>20861.584999999999</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>3769.2640000000001</v>
+      </c>
+      <c r="O60">
+        <v>24878.845000000001</v>
+      </c>
+      <c r="P60">
+        <v>22071.377</v>
+      </c>
+      <c r="Q60">
+        <v>-268.07499999999999</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>5411.6130000000003</v>
+      </c>
+      <c r="U60">
+        <v>565.65700000000004</v>
+      </c>
+      <c r="V60">
+        <v>808.50900000000001</v>
+      </c>
+      <c r="W60">
+        <v>-466.20400000000001</v>
+      </c>
+      <c r="X60">
+        <v>-733.54700000000003</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>465.661</v>
+      </c>
+      <c r="AA60">
+        <v>473.77800000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>420.84199999999998</v>
+      </c>
+      <c r="D61">
+        <v>1320.1369999999999</v>
+      </c>
+      <c r="E61">
+        <v>564.34400000000005</v>
+      </c>
+      <c r="F61">
+        <v>1069.3440000000001</v>
+      </c>
+      <c r="G61">
+        <v>1444.3050000000001</v>
+      </c>
+      <c r="H61">
+        <v>30848.23</v>
+      </c>
+      <c r="I61">
+        <v>1307.7070000000001</v>
+      </c>
+      <c r="J61">
+        <v>21804.134999999998</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>3497.569</v>
+      </c>
+      <c r="O61">
+        <v>25495.386999999999</v>
+      </c>
+      <c r="P61">
+        <v>22629.054</v>
+      </c>
+      <c r="Q61">
+        <v>291.20400000000001</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>5352.8429999999998</v>
+      </c>
+      <c r="U61">
+        <v>856.86099999999999</v>
+      </c>
+      <c r="V61">
+        <v>735.52200000000005</v>
+      </c>
+      <c r="W61">
+        <v>-480.43799999999999</v>
+      </c>
+      <c r="X61">
+        <v>-25.677</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>44.759</v>
+      </c>
+      <c r="AA61">
+        <v>420.84300000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>393.13099999999997</v>
+      </c>
+      <c r="D62">
+        <v>1380.6210000000001</v>
+      </c>
+      <c r="E62">
+        <v>624.60500000000002</v>
+      </c>
+      <c r="F62">
+        <v>1136.502</v>
+      </c>
+      <c r="G62">
+        <v>1711.3150000000001</v>
+      </c>
+      <c r="H62">
+        <v>30565.182000000001</v>
+      </c>
+      <c r="I62">
+        <v>1206.001</v>
+      </c>
+      <c r="J62">
+        <v>22416.682000000001</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2662.645</v>
+      </c>
+      <c r="O62">
+        <v>25323.276000000002</v>
+      </c>
+      <c r="P62">
+        <v>22416.682000000001</v>
+      </c>
+      <c r="Q62">
+        <v>-155.727</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>3150</v>
+      </c>
+      <c r="T62">
+        <v>5241.9059999999999</v>
+      </c>
+      <c r="U62">
+        <v>701.13400000000001</v>
+      </c>
+      <c r="V62">
+        <v>805.85699999999997</v>
+      </c>
+      <c r="W62">
+        <v>-495.92899999999997</v>
+      </c>
+      <c r="X62">
+        <v>-771.31100000000004</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>24.786000000000001</v>
+      </c>
+      <c r="AA62">
+        <v>393.13099999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>481.82900000000001</v>
+      </c>
+      <c r="D63">
+        <v>1336.7149999999999</v>
+      </c>
+      <c r="E63">
+        <v>573.255</v>
+      </c>
+      <c r="F63">
+        <v>1094.5029999999999</v>
+      </c>
+      <c r="G63">
+        <v>1399.731</v>
+      </c>
+      <c r="H63">
+        <v>31398.498</v>
+      </c>
+      <c r="I63">
+        <v>1167.1010000000001</v>
+      </c>
+      <c r="J63">
+        <v>20784.293000000001</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-3429.4140000000002</v>
+      </c>
+      <c r="N63">
+        <v>4730.37</v>
+      </c>
+      <c r="O63">
+        <v>25880.427</v>
+      </c>
+      <c r="P63">
+        <v>22975.821</v>
+      </c>
+      <c r="Q63">
+        <v>103.94199999999999</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>5518.0709999999999</v>
+      </c>
+      <c r="U63">
+        <v>805.07600000000002</v>
+      </c>
+      <c r="V63">
+        <v>720.45799999999997</v>
+      </c>
+      <c r="W63">
+        <v>-496.73500000000001</v>
+      </c>
+      <c r="X63">
+        <v>-421.25900000000001</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-42.457999999999998</v>
+      </c>
+      <c r="AA63">
+        <v>481.82900000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>456.22399999999999</v>
+      </c>
+      <c r="D64">
+        <v>1313.3330000000001</v>
+      </c>
+      <c r="E64">
+        <v>600.81700000000001</v>
+      </c>
+      <c r="F64">
+        <v>1073.2850000000001</v>
+      </c>
+      <c r="G64">
+        <v>1511.6980000000001</v>
+      </c>
+      <c r="H64">
+        <v>31379.782999999999</v>
+      </c>
+      <c r="I64">
+        <v>1209.518</v>
+      </c>
+      <c r="J64">
+        <v>21483.758000000002</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>4062.7310000000002</v>
+      </c>
+      <c r="O64">
+        <v>25904.97</v>
+      </c>
+      <c r="P64">
+        <v>22934.741000000002</v>
+      </c>
+      <c r="Q64">
+        <v>79.204999999999998</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>5474.8130000000001</v>
+      </c>
+      <c r="U64">
+        <v>884.28099999999995</v>
+      </c>
+      <c r="V64">
+        <v>973.49300000000005</v>
+      </c>
+      <c r="W64">
+        <v>-503.59800000000001</v>
+      </c>
+      <c r="X64">
+        <v>-608.70299999999997</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>168.679</v>
+      </c>
+      <c r="AA64">
+        <v>456.22399999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>505.57799999999997</v>
+      </c>
+      <c r="D65">
+        <v>1357.1679999999999</v>
+      </c>
+      <c r="E65">
+        <v>626.423</v>
+      </c>
+      <c r="F65">
+        <v>1102.9110000000001</v>
+      </c>
+      <c r="G65">
+        <v>1454.67</v>
+      </c>
+      <c r="H65">
+        <v>31668.848000000002</v>
+      </c>
+      <c r="I65">
+        <v>1240.713</v>
+      </c>
+      <c r="J65">
+        <v>22077.210999999999</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>3619.759</v>
+      </c>
+      <c r="O65">
+        <v>26182.685000000001</v>
+      </c>
+      <c r="P65">
+        <v>23086.415000000001</v>
+      </c>
+      <c r="Q65">
+        <v>-69.534000000000006</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>5486.1629999999996</v>
+      </c>
+      <c r="U65">
+        <v>814.74699999999996</v>
+      </c>
+      <c r="V65">
+        <v>838.82299999999998</v>
+      </c>
+      <c r="W65">
+        <v>-518.49</v>
+      </c>
+      <c r="X65">
+        <v>-627.42600000000004</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>84.42</v>
+      </c>
+      <c r="AA65">
+        <v>505.57799999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>395.26499999999999</v>
+      </c>
+      <c r="D66">
+        <v>1428.0129999999999</v>
+      </c>
+      <c r="E66">
+        <v>664.61900000000003</v>
+      </c>
+      <c r="F66">
+        <v>1186.0640000000001</v>
+      </c>
+      <c r="G66">
+        <v>1676.135</v>
+      </c>
+      <c r="H66">
+        <v>31103.578000000001</v>
+      </c>
+      <c r="I66">
+        <v>1097.922</v>
+      </c>
+      <c r="J66">
+        <v>22977.103999999999</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2541.16</v>
+      </c>
+      <c r="O66">
+        <v>26005.903999999999</v>
+      </c>
+      <c r="P66">
+        <v>22977.103999999999</v>
+      </c>
+      <c r="Q66">
+        <v>-254.68799999999999</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>3100</v>
+      </c>
+      <c r="T66">
+        <v>5097.674</v>
+      </c>
+      <c r="U66">
+        <v>560.05899999999997</v>
+      </c>
+      <c r="V66">
+        <v>839.92</v>
+      </c>
+      <c r="W66">
+        <v>-518.71900000000005</v>
+      </c>
+      <c r="X66">
+        <v>-887.35500000000002</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>14.015000000000001</v>
+      </c>
+      <c r="AA66">
+        <v>395.26499999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>478.57</v>
+      </c>
+      <c r="D67">
+        <v>1345.7629999999999</v>
+      </c>
+      <c r="E67">
+        <v>621.6</v>
+      </c>
+      <c r="F67">
+        <v>1104.2449999999999</v>
+      </c>
+      <c r="G67">
+        <v>1177.3</v>
+      </c>
+      <c r="H67">
+        <v>30946.093000000001</v>
+      </c>
+      <c r="I67">
+        <v>1081.1849999999999</v>
+      </c>
+      <c r="J67">
+        <v>20927.904999999999</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-1738.7249999999999</v>
+      </c>
+      <c r="N67">
+        <v>4662.41</v>
+      </c>
+      <c r="O67">
+        <v>26050.241000000002</v>
+      </c>
+      <c r="P67">
+        <v>23149.053</v>
+      </c>
+      <c r="Q67">
+        <v>-46.658999999999999</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>4895.8519999999999</v>
+      </c>
+      <c r="U67">
+        <v>513.4</v>
+      </c>
+      <c r="V67">
+        <v>785.69299999999998</v>
+      </c>
+      <c r="W67">
+        <v>-548.52099999999996</v>
+      </c>
+      <c r="X67">
+        <v>-657.09</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-7.7039999999999997</v>
+      </c>
+      <c r="AA67">
+        <v>478.57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>382.82499999999999</v>
+      </c>
+      <c r="D68">
+        <v>1361.548</v>
+      </c>
+      <c r="E68">
+        <v>640.08000000000004</v>
+      </c>
+      <c r="F68">
+        <v>1116.403</v>
+      </c>
+      <c r="G68">
+        <v>1140.5940000000001</v>
+      </c>
+      <c r="H68">
+        <v>30965.966</v>
+      </c>
+      <c r="I68">
+        <v>1205.2670000000001</v>
+      </c>
+      <c r="J68">
+        <v>21827.514999999999</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>4170.7700000000004</v>
+      </c>
+      <c r="O68">
+        <v>26490.428</v>
+      </c>
+      <c r="P68">
+        <v>23422.685000000001</v>
+      </c>
+      <c r="Q68">
+        <v>-24.786000000000001</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>4475.5379999999996</v>
+      </c>
+      <c r="U68">
+        <v>488.61399999999998</v>
+      </c>
+      <c r="V68">
+        <v>1023.89</v>
+      </c>
+      <c r="W68">
+        <v>-546.404</v>
+      </c>
+      <c r="X68">
+        <v>-973.82799999999997</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>206.41499999999999</v>
+      </c>
+      <c r="AA68">
+        <v>382.82400000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>514.61699999999996</v>
+      </c>
+      <c r="D69">
+        <v>1403.6379999999999</v>
+      </c>
+      <c r="E69">
+        <v>686.61699999999996</v>
+      </c>
+      <c r="F69">
+        <v>1144.6310000000001</v>
+      </c>
+      <c r="G69">
+        <v>1195.0219999999999</v>
+      </c>
+      <c r="H69">
+        <v>31032.41</v>
+      </c>
+      <c r="I69">
+        <v>1290.3820000000001</v>
+      </c>
+      <c r="J69">
+        <v>22122.87</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>3965.9969999999998</v>
+      </c>
+      <c r="O69">
+        <v>26603.072</v>
+      </c>
+      <c r="P69">
+        <v>23410.357</v>
+      </c>
+      <c r="Q69">
+        <v>19.791</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>4429.3379999999997</v>
+      </c>
+      <c r="U69">
+        <v>508.40499999999997</v>
+      </c>
+      <c r="V69">
+        <v>909.87</v>
+      </c>
+      <c r="W69">
+        <v>-560.38199999999995</v>
+      </c>
+      <c r="X69">
+        <v>-773.34500000000003</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>70.177000000000007</v>
+      </c>
+      <c r="AA69">
+        <v>514.61699999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>571.95000000000005</v>
+      </c>
+      <c r="D70">
+        <v>1427.692</v>
+      </c>
+      <c r="E70">
+        <v>742.67200000000003</v>
+      </c>
+      <c r="F70">
+        <v>1181.98</v>
+      </c>
+      <c r="G70">
+        <v>2809.1709999999998</v>
+      </c>
+      <c r="H70">
+        <v>32257.637999999999</v>
+      </c>
+      <c r="I70">
+        <v>1175.0899999999999</v>
+      </c>
+      <c r="J70">
+        <v>24632.463</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2665.6680000000001</v>
+      </c>
+      <c r="O70">
+        <v>27828.394</v>
+      </c>
+      <c r="P70">
+        <v>24632.463</v>
+      </c>
+      <c r="Q70">
+        <v>973.904</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>3300</v>
+      </c>
+      <c r="T70">
+        <v>4429.2439999999997</v>
+      </c>
+      <c r="U70">
+        <v>1482.309</v>
+      </c>
+      <c r="V70">
+        <v>874.33500000000004</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>494.19200000000001</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>10.285</v>
+      </c>
+      <c r="AA70">
+        <v>571.95000000000005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>621.48800000000006</v>
+      </c>
+      <c r="D71">
+        <v>1394.182</v>
+      </c>
+      <c r="E71">
+        <v>686.15800000000002</v>
+      </c>
+      <c r="F71">
+        <v>1138.8630000000001</v>
+      </c>
+      <c r="G71">
+        <v>1054.365</v>
+      </c>
+      <c r="H71">
+        <v>31017.86</v>
+      </c>
+      <c r="I71">
+        <v>1180.8510000000001</v>
+      </c>
+      <c r="J71">
+        <v>22679.514999999999</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-2649.9949999999999</v>
+      </c>
+      <c r="N71">
+        <v>3570.8380000000002</v>
+      </c>
+      <c r="O71">
+        <v>26782.844000000001</v>
+      </c>
+      <c r="P71">
+        <v>23647.623</v>
+      </c>
+      <c r="Q71">
+        <v>-1115.1020000000001</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>4235.0159999999996</v>
+      </c>
+      <c r="U71">
+        <v>367.20699999999999</v>
+      </c>
+      <c r="V71">
+        <v>843.47699999999998</v>
+      </c>
+      <c r="W71">
+        <v>-606.08600000000001</v>
+      </c>
+      <c r="X71">
+        <v>-1834.905</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>50.914999999999999</v>
+      </c>
+      <c r="AA71">
+        <v>621.48800000000006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>547.83900000000006</v>
+      </c>
+      <c r="D72">
+        <v>1385.059</v>
+      </c>
+      <c r="E72">
+        <v>681.55100000000004</v>
+      </c>
+      <c r="F72">
+        <v>1148.4680000000001</v>
+      </c>
+      <c r="G72">
+        <v>1403.298</v>
+      </c>
+      <c r="H72">
+        <v>30843.14</v>
+      </c>
+      <c r="I72">
+        <v>1230.7750000000001</v>
+      </c>
+      <c r="J72">
+        <v>22417.282999999999</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>3852.63</v>
+      </c>
+      <c r="O72">
+        <v>26766.510999999999</v>
+      </c>
+      <c r="P72">
+        <v>23505.002</v>
+      </c>
+      <c r="Q72">
+        <v>347.04</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>4076.6289999999999</v>
+      </c>
+      <c r="U72">
+        <v>714.24699999999996</v>
+      </c>
+      <c r="V72">
+        <v>993.30499999999995</v>
+      </c>
+      <c r="W72">
+        <v>-604.08199999999999</v>
+      </c>
+      <c r="X72">
+        <v>-751.15300000000002</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>269.61399999999998</v>
+      </c>
+      <c r="AA72">
+        <v>547.83799999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>557.101</v>
+      </c>
+      <c r="D73">
+        <v>1387.021</v>
+      </c>
+      <c r="E73">
+        <v>722.73</v>
+      </c>
+      <c r="F73">
+        <v>1125.0530000000001</v>
+      </c>
+      <c r="G73">
+        <v>1430.848</v>
+      </c>
+      <c r="H73">
+        <v>31079.692999999999</v>
+      </c>
+      <c r="I73">
+        <v>1268.0989999999999</v>
+      </c>
+      <c r="J73">
+        <v>22584.974999999999</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>3898.038</v>
+      </c>
+      <c r="O73">
+        <v>26984.255000000001</v>
+      </c>
+      <c r="P73">
+        <v>23678.263999999999</v>
+      </c>
+      <c r="Q73">
+        <v>-18.529</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>4095.4380000000001</v>
+      </c>
+      <c r="U73">
+        <v>695.71799999999996</v>
+      </c>
+      <c r="V73">
+        <v>914.38400000000001</v>
+      </c>
+      <c r="W73">
+        <v>-619.44200000000001</v>
+      </c>
+      <c r="X73">
+        <v>-742.24300000000005</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>33.177</v>
+      </c>
+      <c r="AA73">
+        <v>557.101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>713.63</v>
+      </c>
+      <c r="D74">
+        <v>1461.126</v>
+      </c>
+      <c r="E74">
+        <v>763.81500000000005</v>
+      </c>
+      <c r="F74">
+        <v>1207.039</v>
+      </c>
+      <c r="G74">
+        <v>1653.8130000000001</v>
+      </c>
+      <c r="H74">
+        <v>30686.223000000002</v>
+      </c>
+      <c r="I74">
+        <v>1250.1610000000001</v>
+      </c>
+      <c r="J74">
+        <v>23305.535</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>2869.5720000000001</v>
+      </c>
+      <c r="O74">
+        <v>26659.103999999999</v>
+      </c>
+      <c r="P74">
+        <v>23305.535</v>
+      </c>
+      <c r="Q74">
+        <v>-181.38300000000001</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>3300</v>
+      </c>
+      <c r="T74">
+        <v>4027.1190000000001</v>
+      </c>
+      <c r="U74">
+        <v>514.33500000000004</v>
+      </c>
+      <c r="V74">
+        <v>999.63</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-1153.963</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>33.798000000000002</v>
+      </c>
+      <c r="AA74">
+        <v>713.63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>549.30899999999997</v>
+      </c>
+      <c r="D75">
+        <v>1364.8340000000001</v>
+      </c>
+      <c r="E75">
+        <v>733.15899999999999</v>
+      </c>
+      <c r="F75">
+        <v>1109.904</v>
+      </c>
+      <c r="G75">
+        <v>1185.261</v>
+      </c>
+      <c r="H75">
+        <v>30841.776000000002</v>
+      </c>
+      <c r="I75">
+        <v>1157.4770000000001</v>
+      </c>
+      <c r="J75">
+        <v>21818.12</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-2648.0340000000001</v>
+      </c>
+      <c r="N75">
+        <v>4084.8560000000002</v>
+      </c>
+      <c r="O75">
+        <v>26915.952000000001</v>
+      </c>
+      <c r="P75">
+        <v>23708.159</v>
+      </c>
+      <c r="Q75">
+        <v>-77.533000000000001</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>3925.8240000000001</v>
+      </c>
+      <c r="U75">
+        <v>436.80200000000002</v>
+      </c>
+      <c r="V75">
+        <v>837.34699999999998</v>
+      </c>
+      <c r="W75">
+        <v>-634.22199999999998</v>
+      </c>
+      <c r="X75">
+        <v>-801.31799999999998</v>
+      </c>
+      <c r="Y75">
+        <v>522.19399999999996</v>
+      </c>
+      <c r="Z75">
+        <v>101.462</v>
+      </c>
+      <c r="AA75">
+        <v>549.30899999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>496.15899999999999</v>
+      </c>
+      <c r="D76">
+        <v>1393.9860000000001</v>
+      </c>
+      <c r="E76">
+        <v>736.36199999999997</v>
+      </c>
+      <c r="F76">
+        <v>1150.1030000000001</v>
+      </c>
+      <c r="G76">
+        <v>1229.038</v>
+      </c>
+      <c r="H76">
+        <v>30732.915000000001</v>
+      </c>
+      <c r="I76">
+        <v>1227.799</v>
+      </c>
+      <c r="J76">
+        <v>21852.744999999999</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>4267.2070000000003</v>
+      </c>
+      <c r="O76">
+        <v>27137.918000000001</v>
+      </c>
+      <c r="P76">
+        <v>23845.272000000001</v>
+      </c>
+      <c r="Q76">
+        <v>42.973999999999997</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>3594.9969999999998</v>
+      </c>
+      <c r="U76">
+        <v>479.77600000000001</v>
+      </c>
+      <c r="V76">
+        <v>1050.22</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-819.08299999999997</v>
+      </c>
+      <c r="Y76">
+        <v>520.59299999999996</v>
+      </c>
+      <c r="Z76">
+        <v>-2.7789999999999999</v>
+      </c>
+      <c r="AA76">
+        <v>496.15800000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>545.08799999999997</v>
+      </c>
+      <c r="D77">
+        <v>1414.954</v>
+      </c>
+      <c r="E77">
+        <v>775.61699999999996</v>
+      </c>
+      <c r="F77">
+        <v>1151.2090000000001</v>
+      </c>
+      <c r="G77">
+        <v>4441.5469999999996</v>
+      </c>
+      <c r="H77">
+        <v>33844.226000000002</v>
+      </c>
+      <c r="I77">
+        <v>1324.11</v>
+      </c>
+      <c r="J77">
+        <v>25279.868999999999</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>4294.7139999999999</v>
+      </c>
+      <c r="O77">
+        <v>30537.187000000002</v>
+      </c>
+      <c r="P77">
+        <v>27162.491000000002</v>
+      </c>
+      <c r="Q77">
+        <v>3167.4540000000002</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>3307.0390000000002</v>
+      </c>
+      <c r="U77">
+        <v>3647.23</v>
+      </c>
+      <c r="V77">
+        <v>960.62900000000002</v>
+      </c>
+      <c r="W77">
+        <v>-645.75800000000004</v>
+      </c>
+      <c r="X77">
+        <v>2491.163</v>
+      </c>
+      <c r="Y77">
+        <v>486.16800000000001</v>
+      </c>
+      <c r="Z77">
+        <v>-60.866999999999997</v>
+      </c>
+      <c r="AA77">
+        <v>545.08799999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>511.02800000000002</v>
+      </c>
+      <c r="D78">
+        <v>1486.7149999999999</v>
+      </c>
+      <c r="E78">
+        <v>832.15099999999995</v>
+      </c>
+      <c r="F78">
+        <v>1227.6310000000001</v>
+      </c>
+      <c r="G78">
+        <v>1853.306</v>
+      </c>
+      <c r="H78">
+        <v>31231.63</v>
+      </c>
+      <c r="I78">
+        <v>1345.8820000000001</v>
+      </c>
+      <c r="J78">
+        <v>24163.23</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2990.4760000000001</v>
+      </c>
+      <c r="O78">
+        <v>28101.319</v>
+      </c>
+      <c r="P78">
+        <v>24680.039000000001</v>
+      </c>
+      <c r="Q78">
+        <v>-2977.857</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>3000</v>
+      </c>
+      <c r="T78">
+        <v>3130.3110000000001</v>
+      </c>
+      <c r="U78">
+        <v>669.37300000000005</v>
+      </c>
+      <c r="V78">
+        <v>959.63499999999999</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>-3446.848</v>
+      </c>
+      <c r="Y78">
+        <v>516.80899999999997</v>
+      </c>
+      <c r="Z78">
+        <v>-246.83600000000001</v>
+      </c>
+      <c r="AA78">
+        <v>511.02800000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>438.43900000000002</v>
+      </c>
+      <c r="D79">
+        <v>1352.26</v>
+      </c>
+      <c r="E79">
+        <v>793.49</v>
+      </c>
+      <c r="F79">
+        <v>1104.662</v>
+      </c>
+      <c r="G79">
+        <v>4558.143</v>
+      </c>
+      <c r="H79">
+        <v>34121.114000000001</v>
+      </c>
+      <c r="I79">
+        <v>1253.7570000000001</v>
+      </c>
+      <c r="J79">
+        <v>25046.085999999999</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-3006.3420000000001</v>
+      </c>
+      <c r="N79">
+        <v>5406.7849999999999</v>
+      </c>
+      <c r="O79">
+        <v>31397.967000000001</v>
+      </c>
+      <c r="P79">
+        <v>28074.791000000001</v>
+      </c>
+      <c r="Q79">
+        <v>3055.48</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>2723.1469999999999</v>
+      </c>
+      <c r="U79">
+        <v>3724.8530000000001</v>
+      </c>
+      <c r="V79">
+        <v>741.30700000000002</v>
+      </c>
+      <c r="W79">
+        <v>-645.25900000000001</v>
+      </c>
+      <c r="X79">
+        <v>2527.8530000000001</v>
+      </c>
+      <c r="Y79">
+        <v>488.67200000000003</v>
+      </c>
+      <c r="Z79">
+        <v>106.908</v>
+      </c>
+      <c r="AA79">
+        <v>438.43900000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>255.048</v>
+      </c>
+      <c r="D80">
+        <v>1060.441</v>
+      </c>
+      <c r="E80">
+        <v>1457.6949999999999</v>
+      </c>
+      <c r="F80">
+        <v>858.52</v>
+      </c>
+      <c r="G80">
+        <v>4789.0950000000003</v>
+      </c>
+      <c r="H80">
+        <v>34026.17</v>
+      </c>
+      <c r="I80">
+        <v>1216.8309999999999</v>
+      </c>
+      <c r="J80">
+        <v>25087.667000000001</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>5469.2820000000002</v>
+      </c>
+      <c r="O80">
+        <v>31503.339</v>
+      </c>
+      <c r="P80">
+        <v>27788.298999999999</v>
+      </c>
+      <c r="Q80">
+        <v>-418.75299999999999</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>2522.8310000000001</v>
+      </c>
+      <c r="U80">
+        <v>3306.1</v>
+      </c>
+      <c r="V80">
+        <v>73.004999999999995</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>-356.88</v>
+      </c>
+      <c r="Y80">
+        <v>486.71</v>
+      </c>
+      <c r="Z80">
+        <v>-4.867</v>
+      </c>
+      <c r="AA80">
+        <v>255.047</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>146.76</v>
+      </c>
+      <c r="D81">
+        <v>1058.7739999999999</v>
+      </c>
+      <c r="E81">
+        <v>1452.2950000000001</v>
+      </c>
+      <c r="F81">
+        <v>836.25599999999997</v>
+      </c>
+      <c r="G81">
+        <v>2631.4079999999999</v>
+      </c>
+      <c r="H81">
+        <v>31661.575000000001</v>
+      </c>
+      <c r="I81">
+        <v>1299.0619999999999</v>
+      </c>
+      <c r="J81">
+        <v>24107.258999999998</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>4402.777</v>
+      </c>
+      <c r="O81">
+        <v>29458.166000000001</v>
+      </c>
+      <c r="P81">
+        <v>25657.135999999999</v>
+      </c>
+      <c r="Q81">
+        <v>-2223.7869999999998</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>2203.4090000000001</v>
+      </c>
+      <c r="U81">
+        <v>1082.3130000000001</v>
+      </c>
+      <c r="V81">
+        <v>617.30899999999997</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>-2729.57</v>
+      </c>
+      <c r="Y81">
+        <v>484.74799999999999</v>
+      </c>
+      <c r="Z81">
+        <v>-60.677</v>
+      </c>
+      <c r="AA81">
+        <v>146.76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>272.31700000000001</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1132.568</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1236.7339999999999</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>917.45</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>2573.3359999999998</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>34786.845999999998</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>1283.2339999999999</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>24400.632000000001</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>5827.4579999999996</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>31128.608</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>27238.852999999999</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-70.7</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>2400</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>3658.2379999999998</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1011.6130000000001</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>895.077</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-398.59199999999998</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>2552.5369999999998</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>482.70499999999998</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>14.670999999999999</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>272.31700000000001</v>
       </c>
     </row>
